--- a/Documents/safe-电信行业部/轻量级监管.xlsx
+++ b/Documents/safe-电信行业部/轻量级监管.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="执行说明" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,7 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="风险分类">序列定义!$B$1:$B$7</definedName>
@@ -148,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="311">
   <si>
     <t>评审项</t>
   </si>
@@ -986,24 +987,6 @@
   </si>
   <si>
     <t>CP3.6.度量数据分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对“度量跟踪”中的数据进行分析
-软件规模:
-团队速率:
-发布燃尽图偏差:
-团队目标达成率:
-测试覆盖率:
-单元测试密度:
-持续集成成功率:
-客户文档密度:
-缺陷数:
-遗留缺陷数:
-测试完成率:
-客户满意度:
-团队成熟度提升:
-成本及收益核算:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1513,14 +1496,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>须边解读大汉业务逻辑边研发功能，接口等；没有对接第三方应用厂家配合联调测试；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、原有大汉业务模糊风险；
 2、新员工代码质量风险；
 3、数据迁移风险；
 4、对接第三方应用风险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队成员新人占比较高，速率低下，代码质量有待提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>须边解读大汉业务逻辑边研发功能，接口等；没有对接第三方应用厂家配合联调测试；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>须边解读大汉业务逻辑边研发功能，接口等；没有对接第三方应用厂家配合联调测试；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强团队技能的培养及代码质量的监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、原有大汉业务模糊风险；
+2、新员工代码质量风险；
+3、数据迁移风险；
+4、对接第三方应用风险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件规模：计划完成455个故事点，实际完成292个
+人均速率：本次迭代共计10天，故人均速率为292/14/10=2.085，发布燃尽图偏差：0.325
+团队目标达成率:0.64，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
+单元测试密度:50%，达到DOD标准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际速率：292（实际完成故事点）/10（天）/14（人）=2.086 实际及理论速率：455（实际完成故事点）/10（天）/14（人）=3.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2243,7 +2260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2412,9 +2429,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2504,7 +2518,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2516,26 +2530,14 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2543,26 +2545,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2588,6 +2581,27 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2609,6 +2623,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2617,27 +2646,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2669,16 +2677,22 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3778,8 +3792,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1076835152"/>
-        <c:axId val="1076834608"/>
+        <c:axId val="1350721472"/>
+        <c:axId val="1350728544"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3891,11 +3905,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1076835152"/>
-        <c:axId val="1076834608"/>
+        <c:axId val="1350721472"/>
+        <c:axId val="1350728544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1076835152"/>
+        <c:axId val="1350721472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3970,14 +3984,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1076834608"/>
+        <c:crossAx val="1350728544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1076834608"/>
+        <c:axId val="1350728544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4061,7 +4075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1076835152"/>
+        <c:crossAx val="1350721472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4301,25 +4315,25 @@
                   <c:v>1054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>721</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>721</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>721</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>721</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>721</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>721</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>721</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4373,11 +4387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1076830256"/>
-        <c:axId val="1076829712"/>
+        <c:axId val="1350725280"/>
+        <c:axId val="1350718752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1076830256"/>
+        <c:axId val="1350725280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,14 +4426,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1076829712"/>
+        <c:crossAx val="1350718752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1076829712"/>
+        <c:axId val="1350718752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4465,7 +4479,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1076830256"/>
+        <c:crossAx val="1350725280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4511,6 +4525,1006 @@
     <c:headerFooter alignWithMargins="0"/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+                <a:cs typeface="Microsoft YaHei"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+              </a:rPr>
+              <a:t>Sprint 燃尽图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42711823984964842"/>
+          <c:y val="1.0807066044644107E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11908405823895103"/>
+          <c:y val="0.17910480393103601"/>
+          <c:w val="0.82595481419580119"/>
+          <c:h val="0.63059816384052103"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实际曲线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="A2BD90"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F6228"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="333300"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                    <a:cs typeface="Microsoft YaHei"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]SprintBacklog!$AN$5:$BO$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]SprintBacklog!$AN$7:$BO$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>218.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.60000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.60000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201.60000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.60000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201.60000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1407247760"/>
+        <c:axId val="1407233616"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>理想斜线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="DD0806"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F6228"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="333300"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                    <a:cs typeface="Microsoft YaHei"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>([3]SprintBacklog!$E$4,[3]SprintBacklog!$J$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>([3]SprintBacklog!$J$4,[3]SprintBacklog!$AN$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1407247760"/>
+        <c:axId val="1407233616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1407247760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                    <a:cs typeface="Microsoft YaHei"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>天数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48857742782152236"/>
+              <c:y val="0.87784826269757033"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+                <a:cs typeface="Microsoft YaHei"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1407233616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1407233616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                  </a:rPr>
+                  <a:t>剩余时间（h）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+                <a:cs typeface="Microsoft YaHei"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1407247760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Microsoft YaHei"/>
+          <a:ea typeface="Microsoft YaHei"/>
+          <a:cs typeface="Microsoft YaHei"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333399"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>SCRUM发布燃尽图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38641145920589715"/>
+          <c:y val="2.0658731612036869E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14370403379679336"/>
+          <c:y val="0.12081436171708342"/>
+          <c:w val="0.82720389202355848"/>
+          <c:h val="0.71309940330571187"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实际曲线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="666699"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="666699"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="666699"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]产品Backlog!$K$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]产品Backlog!$K$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>理想斜线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="DD2D32"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C0504D"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="DD2D32"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]发布燃尽图!$B$1:$C$1</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]发布燃尽图!$G$1:$H$1</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1352219936"/>
+        <c:axId val="1352220480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1352219936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1352220480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1352220480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1352219936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -10684,6 +11698,75 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6229350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3067050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6257925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2581275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -11004,25 +12087,25 @@
             <v>1054</v>
           </cell>
           <cell r="L4">
-            <v>721</v>
+            <v>620</v>
           </cell>
           <cell r="M4">
-            <v>721</v>
+            <v>410</v>
           </cell>
           <cell r="N4">
-            <v>721</v>
+            <v>410</v>
           </cell>
           <cell r="O4">
-            <v>721</v>
+            <v>410</v>
           </cell>
           <cell r="P4">
-            <v>721</v>
+            <v>410</v>
           </cell>
           <cell r="Q4">
-            <v>721</v>
+            <v>410</v>
           </cell>
           <cell r="R4">
-            <v>721</v>
+            <v>410</v>
           </cell>
         </row>
         <row r="6">
@@ -11069,6 +12152,136 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SprintBacklog (2)"/>
+      <sheetName val="SprintBacklog3.1-计划会"/>
+      <sheetName val="SprintBacklog"/>
+      <sheetName val="原始数据"/>
+      <sheetName val="回顾"/>
+      <sheetName val="障碍列表"/>
+      <sheetName val="变更履历"/>
+      <sheetName val="字典"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="E4">
+            <v>14</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AN5">
+            <v>0</v>
+          </cell>
+          <cell r="AO5">
+            <v>1</v>
+          </cell>
+          <cell r="AQ5">
+            <v>2</v>
+          </cell>
+          <cell r="AS5">
+            <v>3</v>
+          </cell>
+          <cell r="AU5">
+            <v>4</v>
+          </cell>
+          <cell r="AW5">
+            <v>5</v>
+          </cell>
+          <cell r="AY5">
+            <v>6</v>
+          </cell>
+          <cell r="BA5">
+            <v>7</v>
+          </cell>
+          <cell r="BC5">
+            <v>8</v>
+          </cell>
+          <cell r="BE5">
+            <v>9</v>
+          </cell>
+          <cell r="BG5">
+            <v>10</v>
+          </cell>
+          <cell r="BI5">
+            <v>11</v>
+          </cell>
+          <cell r="BK5">
+            <v>12</v>
+          </cell>
+          <cell r="BM5">
+            <v>13</v>
+          </cell>
+          <cell r="BO5">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AN7">
+            <v>218.4</v>
+          </cell>
+          <cell r="AO7">
+            <v>218.4</v>
+          </cell>
+          <cell r="AQ7">
+            <v>201.60000000000005</v>
+          </cell>
+          <cell r="AS7">
+            <v>201.60000000000005</v>
+          </cell>
+          <cell r="AU7">
+            <v>201.60000000000005</v>
+          </cell>
+          <cell r="AW7">
+            <v>201.60000000000005</v>
+          </cell>
+          <cell r="AY7">
+            <v>201.60000000000005</v>
+          </cell>
+          <cell r="BA7">
+            <v>134.4</v>
+          </cell>
+          <cell r="BC7">
+            <v>105.6</v>
+          </cell>
+          <cell r="BE7">
+            <v>105.6</v>
+          </cell>
+          <cell r="BG7">
+            <v>38.400000000000006</v>
+          </cell>
+          <cell r="BI7">
+            <v>38.400000000000006</v>
+          </cell>
+          <cell r="BK7">
+            <v>0</v>
+          </cell>
+          <cell r="BM7">
+            <v>0</v>
+          </cell>
+          <cell r="BO7">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -11401,7 +12614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:C20"/>
     </sheetView>
   </sheetViews>
@@ -11458,54 +12671,54 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="129" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="129" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="126" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="127" t="s">
+      <c r="E13" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F13" s="126" t="s">
         <v>159</v>
       </c>
     </row>
@@ -11519,19 +12732,19 @@
       <c r="F14" s="128"/>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="123" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="47" t="s">
@@ -11540,59 +12753,59 @@
       <c r="E16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="123" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="42" t="s">
         <v>163</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="125"/>
+      <c r="F17" s="124"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="42" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="125"/>
+      <c r="F18" s="124"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="42" t="s">
         <v>164</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="125"/>
+      <c r="F19" s="124"/>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
       <c r="D20" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="126"/>
+      <c r="F20" s="125"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="126" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="44" t="s">
@@ -11601,7 +12814,7 @@
       <c r="E21" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="127" t="s">
+      <c r="F21" s="126" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11617,101 +12830,88 @@
       <c r="F22" s="128"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="9"/>
       <c r="E23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="129"/>
+      <c r="F23" s="127"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="123" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="123" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="125"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="125"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="125"/>
+      <c r="F25" s="124"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="125"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="125"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="125"/>
+      <c r="F26" s="124"/>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="126"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="126"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="126"/>
+      <c r="F27" s="125"/>
     </row>
     <row r="28" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="127" t="s">
+      <c r="D28" s="126" t="s">
         <v>95</v>
       </c>
       <c r="E28" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="127" t="s">
+      <c r="F28" s="126" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="129"/>
+      <c r="F29" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:E12"/>
@@ -11720,6 +12920,19 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11858,123 +13071,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="159" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="166" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="171" t="s">
+      <c r="E6" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="170" t="s">
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="167" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="169"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="18" t="s">
         <v>152</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="167" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="176" t="s">
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="178"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="175"/>
       <c r="S7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="T7" s="170"/>
+      <c r="T7" s="167"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="179">
+      <c r="A8" s="161">
         <v>1</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="179" t="s">
+      <c r="D8" s="161" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -11983,399 +13196,399 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="165" t="s">
+      <c r="G8" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="168"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="178"/>
       <c r="S8" s="21"/>
       <c r="T8" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="179"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="179"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="20" t="s">
         <v>156</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="165" t="s">
+      <c r="G9" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="168"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="178"/>
       <c r="S9" s="21"/>
       <c r="T9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="179"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="179"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="165" t="s">
+      <c r="G10" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="168"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="178"/>
       <c r="S10" s="21"/>
       <c r="T10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="179"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="179"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="20"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="168"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="178"/>
       <c r="S11" s="21"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="179"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="161"/>
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="168"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="178"/>
       <c r="S12" s="21"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="182"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="182"/>
-      <c r="S13" s="182"/>
-      <c r="T13" s="182"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="179">
+      <c r="A14" s="161">
         <v>2</v>
       </c>
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="179"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="20"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="164"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="179"/>
+      <c r="P14" s="180"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="181"/>
       <c r="S14" s="21"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="179"/>
-      <c r="B15" s="179"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="179"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="20"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="164"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="179"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="180"/>
+      <c r="R15" s="181"/>
       <c r="S15" s="21"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="179"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="164"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="179"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="181"/>
       <c r="S16" s="21"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="179"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="20"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="164"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="181"/>
       <c r="S17" s="21"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="179"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="179"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="161"/>
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="164"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="180"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="181"/>
       <c r="S18" s="21"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="180"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="180"/>
-      <c r="Q19" s="180"/>
-      <c r="R19" s="180"/>
-      <c r="S19" s="180"/>
-      <c r="T19" s="180"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="158"/>
+      <c r="T19" s="158"/>
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="179">
+      <c r="A20" s="161">
         <v>3</v>
       </c>
-      <c r="B20" s="179" t="s">
+      <c r="B20" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="179"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="20"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="164"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="179"/>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="181"/>
       <c r="S20" s="21"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="179"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="179"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="161"/>
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="164"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="179"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="181"/>
       <c r="S21" s="21"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="179"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="161"/>
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="164"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="179"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="181"/>
       <c r="S22" s="21"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="179"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="179"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="20"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="164"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="179"/>
+      <c r="P23" s="180"/>
+      <c r="Q23" s="180"/>
+      <c r="R23" s="181"/>
       <c r="S23" s="21"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="179"/>
+      <c r="A24" s="161"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="161"/>
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="164"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="179"/>
+      <c r="P24" s="180"/>
+      <c r="Q24" s="180"/>
+      <c r="R24" s="181"/>
       <c r="S24" s="21"/>
       <c r="T24" s="2"/>
     </row>
@@ -12390,6 +13603,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C8:C12"/>
     <mergeCell ref="A19:T19"/>
     <mergeCell ref="B2:L4"/>
     <mergeCell ref="A13:T13"/>
@@ -12406,43 +13656,6 @@
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="G14:N14"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="C14:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T8:T12 T25:T27">
@@ -12528,155 +13741,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="D1" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="F1" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="92" t="s">
+      <c r="H1" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="I1" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="J1" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="93">
+        <v>1</v>
+      </c>
+      <c r="B2" s="93">
+        <v>500</v>
+      </c>
+      <c r="C2" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="L1" s="93" t="s">
+      <c r="D2" s="94" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94">
+      <c r="E2" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="95">
         <v>1</v>
       </c>
-      <c r="B2" s="94">
-        <v>500</v>
-      </c>
-      <c r="C2" s="94" t="s">
+      <c r="K2" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="95" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="94" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="96">
+    </row>
+    <row r="3" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="93">
+        <v>2</v>
+      </c>
+      <c r="B3" s="93">
+        <v>200</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" s="94" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="95">
         <v>1</v>
       </c>
-      <c r="K2" s="96" t="s">
-        <v>271</v>
-      </c>
-      <c r="L2" s="96" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94">
-        <v>2</v>
-      </c>
-      <c r="B3" s="94">
+      <c r="K3" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="93">
+        <v>3</v>
+      </c>
+      <c r="B4" s="93">
         <v>200</v>
       </c>
-      <c r="C3" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="95" t="s">
+      <c r="C4" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="F4" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" s="95" t="s">
+      <c r="G4" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="95">
+        <v>1</v>
+      </c>
+      <c r="K4" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="J3" s="96">
-        <v>1</v>
-      </c>
-      <c r="K3" s="96" t="s">
+      <c r="L4" s="95" t="s">
         <v>277</v>
-      </c>
-      <c r="L3" s="96" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="94">
-        <v>3</v>
-      </c>
-      <c r="B4" s="94">
-        <v>200</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="J4" s="96">
-        <v>1</v>
-      </c>
-      <c r="K4" s="96" t="s">
-        <v>277</v>
-      </c>
-      <c r="L4" s="96" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -12966,122 +14179,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="182" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-    </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="99" t="s">
+      <c r="B2" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="C2" s="100" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="D2" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="E2" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="100" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="99">
+        <v>1</v>
+      </c>
+      <c r="B3" s="101" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100">
-        <v>1</v>
-      </c>
-      <c r="B3" s="102" t="s">
+      <c r="C3" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="D3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A4" s="103">
+        <v>2</v>
+      </c>
+      <c r="B4" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-    </row>
-    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="104">
-        <v>2</v>
-      </c>
-      <c r="B4" s="102" t="s">
+      <c r="C4" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+    </row>
+    <row r="5" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="99">
+        <v>3</v>
+      </c>
+      <c r="B5" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-    </row>
-    <row r="5" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100">
-        <v>3</v>
-      </c>
-      <c r="B5" s="102" t="s">
+      <c r="C5" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="D5" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="104">
+      <c r="A6" s="103">
         <v>4</v>
       </c>
-      <c r="B6" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>290</v>
+      <c r="B6" s="101" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>289</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
+        <v>288</v>
+      </c>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="100"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="106"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="104"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="106"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="100"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="107"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13096,8 +14309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13115,78 +14328,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="132" t="s">
@@ -13198,36 +14411,36 @@
       <c r="C9" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="134" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="134" t="s">
+      <c r="I9" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="133" t="s">
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="134" t="s">
         <v>41</v>
       </c>
       <c r="P9" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="111" t="s">
+      <c r="Q9" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="111" t="s">
+      <c r="R9" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="111" t="s">
+      <c r="S9" s="110" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13235,44 +14448,44 @@
       <c r="A10" s="132"/>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="112" t="s">
+      <c r="D10" s="134"/>
+      <c r="E10" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="112" t="s">
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="112" t="s">
+      <c r="K10" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="112" t="s">
+      <c r="L10" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="112" t="s">
+      <c r="M10" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="112" t="s">
+      <c r="N10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="133"/>
+      <c r="O10" s="134"/>
       <c r="P10" s="132"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="112" t="s">
         <v>195</v>
       </c>
       <c r="C11" s="8">
@@ -13284,7 +14497,9 @@
       <c r="E11" s="8">
         <v>475</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>455</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="51"/>
       <c r="I11" s="8"/>
@@ -13300,10 +14515,10 @@
       <c r="S11" s="51"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="112" t="s">
         <v>196</v>
       </c>
       <c r="C12" s="51"/>
@@ -13311,7 +14526,9 @@
       <c r="E12" s="8">
         <v>330</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>292</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -13321,24 +14538,26 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="51"/>
-      <c r="P12" s="114"/>
+      <c r="P12" s="113"/>
       <c r="Q12" s="51"/>
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
     </row>
     <row r="13" spans="1:19" ht="199.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="113" t="s">
-        <v>285</v>
+      <c r="A13" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="112" t="s">
+        <v>284</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
-      <c r="E13" s="120" t="s">
-        <v>293</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="E13" s="119" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="119" t="s">
+        <v>310</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
@@ -13348,16 +14567,16 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="51"/>
-      <c r="P13" s="114"/>
+      <c r="P13" s="113"/>
       <c r="Q13" s="51"/>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="107" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="51"/>
@@ -13365,9 +14584,11 @@
       <c r="E14" s="8">
         <v>-0.17299999999999999</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>-0.32500000000000001</v>
+      </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="115"/>
+      <c r="H14" s="114"/>
       <c r="I14" s="51"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -13381,10 +14602,10 @@
       <c r="S14" s="51"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="115" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="51"/>
@@ -13392,7 +14613,9 @@
       <c r="E15" s="8">
         <v>0.69</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <v>0.64</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
@@ -13408,10 +14631,10 @@
       <c r="S15" s="51"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="116" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="51"/>
@@ -13433,10 +14656,10 @@
       <c r="S16" s="51"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="108" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="51"/>
@@ -13458,10 +14681,10 @@
       <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="108" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="51"/>
@@ -13483,10 +14706,10 @@
       <c r="S18" s="51"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="108" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="51"/>
@@ -13494,24 +14717,24 @@
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
-      <c r="H19" s="115"/>
+      <c r="H19" s="114"/>
       <c r="I19" s="51"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="115"/>
+      <c r="O19" s="114"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
       <c r="S19" s="51"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="107" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="51"/>
@@ -13533,10 +14756,10 @@
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="107" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="51"/>
@@ -13558,10 +14781,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="51"/>
@@ -13583,10 +14806,10 @@
       <c r="S22" s="51"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="107" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="51"/>
@@ -13608,10 +14831,10 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="107" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="51"/>
@@ -13633,10 +14856,10 @@
       <c r="S24" s="51"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="109" t="s">
+      <c r="A25" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="108" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="51"/>
@@ -13658,18 +14881,20 @@
       <c r="S25" s="51"/>
     </row>
     <row r="26" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="117" t="s">
         <v>287</v>
-      </c>
-      <c r="B26" s="118" t="s">
-        <v>288</v>
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
-      <c r="E26" s="110" t="s">
-        <v>292</v>
-      </c>
-      <c r="F26" s="8"/>
+      <c r="E26" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="109" t="s">
+        <v>291</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="51"/>
@@ -13685,187 +14910,182 @@
       <c r="S26" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="133"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="133"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="133"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="C35" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="D35" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="D35" s="91" t="s">
+      <c r="F35" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="E35" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="F35" s="92" t="s">
+      <c r="H35" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="G35" s="92" t="s">
+      <c r="I35" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="J35" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="I35" s="91" t="s">
+      <c r="K35" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" s="92" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="303.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="93">
+        <v>1</v>
+      </c>
+      <c r="B36" s="93">
+        <v>500</v>
+      </c>
+      <c r="C36" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="J35" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="K35" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="L35" s="93" t="s">
+      <c r="D36" s="94" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="303.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="94">
+      <c r="E36" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" s="94" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" s="94" t="s">
+        <v>268</v>
+      </c>
+      <c r="I36" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" s="95">
         <v>1</v>
       </c>
-      <c r="B36" s="94">
-        <v>500</v>
-      </c>
-      <c r="C36" s="94" t="s">
+      <c r="K36" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="D36" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="F36" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="G36" s="95" t="s">
-        <v>268</v>
-      </c>
-      <c r="H36" s="95" t="s">
-        <v>269</v>
-      </c>
-      <c r="I36" s="94" t="s">
-        <v>270</v>
-      </c>
-      <c r="J36" s="96">
+    </row>
+    <row r="37" spans="1:12" ht="225" x14ac:dyDescent="0.15">
+      <c r="A37" s="93">
+        <v>2</v>
+      </c>
+      <c r="B37" s="93">
+        <v>200</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" s="94" t="s">
+        <v>274</v>
+      </c>
+      <c r="H37" s="94" t="s">
+        <v>275</v>
+      </c>
+      <c r="I37" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" s="95">
         <v>1</v>
       </c>
-      <c r="K36" s="96" t="s">
-        <v>271</v>
-      </c>
-      <c r="L36" s="96" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="225" x14ac:dyDescent="0.15">
-      <c r="A37" s="94">
-        <v>2</v>
-      </c>
-      <c r="B37" s="94">
+      <c r="K37" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" s="95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="236.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="93">
+        <v>3</v>
+      </c>
+      <c r="B38" s="93">
         <v>200</v>
       </c>
-      <c r="C37" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" s="95" t="s">
+      <c r="C38" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="F38" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="F37" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="G37" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="H37" s="95" t="s">
+      <c r="G38" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="H38" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="I38" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" s="95">
+        <v>1</v>
+      </c>
+      <c r="K38" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="I37" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="J37" s="96">
-        <v>1</v>
-      </c>
-      <c r="K37" s="96" t="s">
+      <c r="L38" s="95" t="s">
         <v>277</v>
-      </c>
-      <c r="L37" s="96" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="236.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="94">
-        <v>3</v>
-      </c>
-      <c r="B38" s="94">
-        <v>200</v>
-      </c>
-      <c r="C38" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="95" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>273</v>
-      </c>
-      <c r="F38" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="G38" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="H38" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="I38" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="J38" s="96">
-        <v>1</v>
-      </c>
-      <c r="K38" s="96" t="s">
-        <v>277</v>
-      </c>
-      <c r="L38" s="96" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="C9:C10"/>
@@ -13873,6 +15093,11 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A2:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E36:E37">
@@ -14077,7 +15302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A10" sqref="A8:K11"/>
     </sheetView>
   </sheetViews>
@@ -14101,25 +15326,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="137" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="A2" s="144" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
       <c r="L2" s="83"/>
       <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -14136,94 +15361,94 @@
       <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="145" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="C4" s="147" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="D4" s="148"/>
+      <c r="E4" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142" t="s">
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143" t="s">
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="97" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="146"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="98" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="53" t="s">
+      <c r="D5" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="E5" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="H5" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="J5" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="53" t="s">
+      <c r="K5" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="M5" s="53" t="s">
         <v>207</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>208</v>
       </c>
       <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14" ht="185.25" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="85">
+        <v>293</v>
+      </c>
+      <c r="D6" s="84">
         <v>3.39</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="F6" s="85">
+        <v>293</v>
+      </c>
+      <c r="F6" s="84">
         <v>2.36</v>
       </c>
-      <c r="G6" s="121" t="s">
-        <v>296</v>
+      <c r="G6" s="120" t="s">
+        <v>295</v>
       </c>
       <c r="H6" s="54"/>
       <c r="I6" s="54"/>
@@ -14231,19 +15456,19 @@
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="144"/>
+      <c r="N6" s="136"/>
     </row>
     <row r="7" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>211</v>
-      </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="85"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="85"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
       <c r="I7" s="54"/>
@@ -14251,29 +15476,29 @@
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="145"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="1:14" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>213</v>
-      </c>
       <c r="C8" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" s="86">
+        <v>294</v>
+      </c>
+      <c r="D8" s="85">
         <v>1</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8" s="86">
+        <v>294</v>
+      </c>
+      <c r="F8" s="85">
         <v>0.69</v>
       </c>
-      <c r="G8" s="121" t="s">
-        <v>297</v>
+      <c r="G8" s="120" t="s">
+        <v>296</v>
       </c>
       <c r="H8" s="54"/>
       <c r="I8" s="54"/>
@@ -14281,46 +15506,46 @@
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="146"/>
+      <c r="N8" s="138"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="147" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
+      <c r="A10" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="148"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="87"/>
+      <c r="A12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -14332,66 +15557,66 @@
       <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="C14" s="143"/>
+      <c r="D14" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151" t="s">
+      <c r="E14" s="143"/>
+      <c r="F14" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151" t="s">
+      <c r="G14" s="143"/>
+      <c r="H14" s="143" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151" t="s">
+      <c r="I14" s="143"/>
+      <c r="J14" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151" t="s">
+      <c r="K14" s="143"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="142"/>
+      <c r="B15" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="K14" s="151"/>
-    </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="150"/>
-      <c r="B15" s="52" t="s">
+      <c r="C15" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="D15" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="87" t="s">
         <v>222</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="88" t="s">
-        <v>223</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -14405,8 +15630,8 @@
       <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="88" t="s">
-        <v>224</v>
+      <c r="A17" s="87" t="s">
+        <v>223</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -14420,8 +15645,8 @@
       <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="88" t="s">
-        <v>225</v>
+      <c r="A18" s="87" t="s">
+        <v>224</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -14435,8 +15660,8 @@
       <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="88" t="s">
-        <v>226</v>
+      <c r="A19" s="87" t="s">
+        <v>225</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -14450,8 +15675,8 @@
       <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="88" t="s">
-        <v>227</v>
+      <c r="A20" s="87" t="s">
+        <v>226</v>
       </c>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -14465,8 +15690,8 @@
       <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="90" t="s">
-        <v>228</v>
+      <c r="A21" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -14480,8 +15705,8 @@
       <c r="K21" s="54"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="89" t="s">
-        <v>238</v>
+      <c r="A22" s="88" t="s">
+        <v>237</v>
       </c>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -14496,6 +15721,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="A10:K11"/>
     <mergeCell ref="A14:A15"/>
@@ -14504,13 +15736,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14585,28 +15810,28 @@
       <c r="C9" s="59"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="153" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="153"/>
-      <c r="C11" s="155"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="154"/>
     </row>
     <row r="12" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="156" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="153" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="158"/>
-      <c r="C13" s="156"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="155"/>
     </row>
     <row r="14" spans="2:3" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
@@ -14638,7 +15863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -14766,8 +15991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14798,8 +16023,8 @@
       <c r="B4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="119" t="s">
-        <v>291</v>
+      <c r="C4" s="118" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14807,7 +16032,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -14815,7 +16040,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14823,7 +16048,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
@@ -14841,7 +16066,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -14849,15 +16074,15 @@
         <v>176</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="123" t="s">
-        <v>304</v>
+      <c r="C12" s="122" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="208.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14876,8 +16101,8 @@
       <c r="B15" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="122" t="s">
-        <v>302</v>
+      <c r="C15" s="121" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -14892,8 +16117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14924,27 +16149,33 @@
       <c r="B4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="119" t="s">
-        <v>291</v>
+      <c r="C4" s="118" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="29"/>
@@ -14960,27 +16191,33 @@
       <c r="B10" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="26" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="26" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="12" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="122" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="246" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="71" t="s">
         <v>178</v>
       </c>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="2:3" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="72" t="s">
         <v>179</v>
       </c>
@@ -14990,14 +16227,15 @@
       <c r="B15" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="84" t="s">
-        <v>199</v>
+      <c r="C15" s="121" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documents/safe-电信行业部/轻量级监管.xlsx
+++ b/Documents/safe-电信行业部/轻量级监管.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="执行说明" sheetId="10" r:id="rId1"/>
@@ -2260,7 +2260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2518,7 +2518,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2530,14 +2530,26 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2545,17 +2557,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2581,27 +2602,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2623,21 +2623,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2646,6 +2631,27 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2677,27 +2683,22 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3679,50 +3680,50 @@
               <c:f>[1]SprintBacklog!$AN$5:$BO$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -3733,50 +3734,50 @@
               <c:f>[1]SprintBacklog!$AN$7:$BO$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>943.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>943.6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>940.4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="3">
                   <c:v>838.39999999999975</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="4">
                   <c:v>767.1999999999997</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="5">
                   <c:v>663.5999999999998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="6">
                   <c:v>663.5999999999998</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="7">
                   <c:v>663.5999999999998</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="8">
                   <c:v>620.39999999999964</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="9">
                   <c:v>447.19999999999993</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="10">
                   <c:v>440.00000000000006</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="11">
                   <c:v>367.59999999999997</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="12">
                   <c:v>168.00000000000003</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3792,8 +3793,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1350721472"/>
-        <c:axId val="1350728544"/>
+        <c:axId val="1585525504"/>
+        <c:axId val="1901202576"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3905,11 +3906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1350721472"/>
-        <c:axId val="1350728544"/>
+        <c:axId val="1585525504"/>
+        <c:axId val="1901202576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1350721472"/>
+        <c:axId val="1585525504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3984,14 +3985,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350728544"/>
+        <c:crossAx val="1901202576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1350728544"/>
+        <c:axId val="1901202576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4075,7 +4076,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350721472"/>
+        <c:crossAx val="1585525504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4370,11 +4371,31 @@
           <c:xVal>
             <c:numRef>
               <c:f>[2]发布燃尽图!$B$1:$C$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>[2]发布燃尽图!$G$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1054</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -4387,11 +4408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1350725280"/>
-        <c:axId val="1350718752"/>
+        <c:axId val="1901203120"/>
+        <c:axId val="1901203664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1350725280"/>
+        <c:axId val="1901203120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,14 +4447,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350718752"/>
+        <c:crossAx val="1901203664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1350718752"/>
+        <c:axId val="1901203664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4479,7 +4500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350725280"/>
+        <c:crossAx val="1901203120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4792,8 +4813,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1407247760"/>
-        <c:axId val="1407233616"/>
+        <c:axId val="1901215088"/>
+        <c:axId val="1901204208"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4905,11 +4926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1407247760"/>
-        <c:axId val="1407233616"/>
+        <c:axId val="1901215088"/>
+        <c:axId val="1901204208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1407247760"/>
+        <c:axId val="1901215088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4984,14 +5005,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1407233616"/>
+        <c:crossAx val="1901204208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1407233616"/>
+        <c:axId val="1901204208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5075,7 +5096,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1407247760"/>
+        <c:crossAx val="1901215088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5370,11 +5391,31 @@
           <c:xVal>
             <c:numRef>
               <c:f>[2]发布燃尽图!$B$1:$C$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>[2]发布燃尽图!$G$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1054</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -5387,11 +5428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1352219936"/>
-        <c:axId val="1352220480"/>
+        <c:axId val="1901208560"/>
+        <c:axId val="1901208016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1352219936"/>
+        <c:axId val="1901208560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5426,14 +5467,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352220480"/>
+        <c:crossAx val="1901208016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1352220480"/>
+        <c:axId val="1901208016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5479,7 +5520,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352219936"/>
+        <c:crossAx val="1901208560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12671,19 +12712,19 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="123" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="123" t="s">
         <v>82</v>
       </c>
     </row>
@@ -12723,28 +12764,28 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="129" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="47" t="s">
@@ -12753,7 +12794,7 @@
       <c r="E16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="129" t="s">
         <v>162</v>
       </c>
     </row>
@@ -12819,39 +12860,39 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="128"/>
+      <c r="F22" s="127"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="9"/>
       <c r="E23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="127"/>
+      <c r="F23" s="128"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="129" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="129" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="123" t="s">
+      <c r="F24" s="129" t="s">
         <v>166</v>
       </c>
     </row>
@@ -12902,16 +12943,29 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="127"/>
+      <c r="F29" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:E12"/>
@@ -12920,19 +12974,6 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13071,123 +13112,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="167" t="s">
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="169" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="166"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="168"/>
       <c r="E7" s="18" t="s">
         <v>152</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="167" t="s">
+      <c r="G7" s="169" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="173" t="s">
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="175" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="175"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="177"/>
       <c r="S7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="T7" s="167"/>
+      <c r="T7" s="169"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="161">
+      <c r="A8" s="178">
         <v>1</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="158" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="178" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -13196,399 +13237,399 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="162" t="s">
+      <c r="G8" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="178"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="167"/>
       <c r="S8" s="21"/>
       <c r="T8" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="161"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="161"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="178"/>
       <c r="E9" s="20" t="s">
         <v>156</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="162" t="s">
+      <c r="G9" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="178"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="167"/>
       <c r="S9" s="21"/>
       <c r="T9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="161"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="161"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="176"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="178"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="167"/>
       <c r="S10" s="21"/>
       <c r="T10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="161"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="161"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="20"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="178"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="167"/>
       <c r="S11" s="21"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="161"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="161"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="178"/>
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="177"/>
-      <c r="R12" s="178"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="167"/>
       <c r="S12" s="21"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="160"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="181"/>
+      <c r="S13" s="181"/>
+      <c r="T13" s="181"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="161">
+      <c r="A14" s="178">
         <v>2</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="161"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="20"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="180"/>
-      <c r="Q14" s="180"/>
-      <c r="R14" s="181"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="163"/>
       <c r="S14" s="21"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="161"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="161"/>
+      <c r="A15" s="178"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="178"/>
       <c r="E15" s="20"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="179"/>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="180"/>
-      <c r="R15" s="181"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="163"/>
       <c r="S15" s="21"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="161"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="161"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="180"/>
-      <c r="R16" s="181"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="163"/>
       <c r="S16" s="21"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="161"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="161"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="178"/>
       <c r="E17" s="20"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="179"/>
-      <c r="P17" s="180"/>
-      <c r="Q17" s="180"/>
-      <c r="R17" s="181"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="163"/>
       <c r="S17" s="21"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="161"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="161"/>
+      <c r="A18" s="178"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="180"/>
-      <c r="R18" s="181"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="163"/>
       <c r="S18" s="21"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="158"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="158"/>
-      <c r="T19" s="158"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="179"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="179"/>
+      <c r="R19" s="179"/>
+      <c r="S19" s="179"/>
+      <c r="T19" s="179"/>
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="161">
+      <c r="A20" s="178">
         <v>3</v>
       </c>
-      <c r="B20" s="161" t="s">
+      <c r="B20" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="161"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="178"/>
       <c r="E20" s="20"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="180"/>
-      <c r="R20" s="181"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="163"/>
       <c r="S20" s="21"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="161"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="161"/>
+      <c r="A21" s="178"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="179"/>
-      <c r="P21" s="180"/>
-      <c r="Q21" s="180"/>
-      <c r="R21" s="181"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="163"/>
       <c r="S21" s="21"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="161"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="161"/>
+      <c r="A22" s="178"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="180"/>
-      <c r="R22" s="181"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="163"/>
       <c r="S22" s="21"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="161"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="161"/>
+      <c r="A23" s="178"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="178"/>
       <c r="E23" s="20"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="180"/>
-      <c r="R23" s="181"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="163"/>
       <c r="S23" s="21"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="161"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="161"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="179"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="180"/>
-      <c r="R24" s="181"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="163"/>
       <c r="S24" s="21"/>
       <c r="T24" s="2"/>
     </row>
@@ -13603,6 +13644,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A19:T19"/>
+    <mergeCell ref="B2:L4"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="O15:R15"/>
@@ -13619,43 +13697,6 @@
     <mergeCell ref="G17:N17"/>
     <mergeCell ref="G18:N18"/>
     <mergeCell ref="C14:C18"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="B2:L4"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T8:T12 T25:T27">
@@ -14309,7 +14350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -14328,99 +14369,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="131"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="131"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="132" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="110"/>
       <c r="G9" s="110"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="133" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="111"/>
@@ -14428,10 +14469,10 @@
       <c r="L9" s="111"/>
       <c r="M9" s="111"/>
       <c r="N9" s="111"/>
-      <c r="O9" s="134" t="s">
+      <c r="O9" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="132" t="s">
+      <c r="P9" s="131" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="110" t="s">
@@ -14445,10 +14486,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="134"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132"/>
       <c r="E10" s="111" t="s">
         <v>31</v>
       </c>
@@ -14458,8 +14499,8 @@
       <c r="G10" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
       <c r="J10" s="111" t="s">
         <v>36</v>
       </c>
@@ -14475,8 +14516,8 @@
       <c r="N10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="134"/>
-      <c r="P10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="131"/>
       <c r="Q10" s="110"/>
       <c r="R10" s="110"/>
       <c r="S10" s="110"/>
@@ -14910,22 +14951,22 @@
       <c r="S26" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="133"/>
+      <c r="B28" s="130"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="133"/>
+      <c r="B29" s="130"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="133"/>
+      <c r="B30" s="130"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
@@ -15086,6 +15127,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="C9:C10"/>
@@ -15093,11 +15139,6 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="O9:O10"/>
-    <mergeCell ref="A2:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E36:E37">
@@ -15326,19 +15367,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="136" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="83"/>
       <c r="M2" s="83"/>
     </row>
@@ -15361,38 +15402,38 @@
       <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="149" t="s">
+      <c r="D4" s="140"/>
+      <c r="E4" s="141" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="150" t="s">
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="142" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150" t="s">
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
       <c r="N4" s="97" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="53" t="s">
         <v>205</v>
       </c>
@@ -15456,7 +15497,7 @@
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="136"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
@@ -15476,7 +15517,7 @@
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="137"/>
+      <c r="N7" s="144"/>
     </row>
     <row r="8" spans="1:14" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
@@ -15506,35 +15547,35 @@
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="138"/>
+      <c r="N8" s="145"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="86"/>
@@ -15557,32 +15598,32 @@
       <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="148" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143" t="s">
+      <c r="C14" s="150"/>
+      <c r="D14" s="150" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143" t="s">
+      <c r="E14" s="150"/>
+      <c r="F14" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143" t="s">
+      <c r="G14" s="150"/>
+      <c r="H14" s="150" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143" t="s">
+      <c r="I14" s="150"/>
+      <c r="J14" s="150" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="143"/>
+      <c r="K14" s="150"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="142"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="52" t="s">
         <v>220</v>
       </c>
@@ -15721,13 +15762,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="A10:K11"/>
     <mergeCell ref="A14:A15"/>
@@ -15736,6 +15770,13 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15991,8 +16032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16017,7 +16058,9 @@
       <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="183">
+        <v>42996</v>
+      </c>
     </row>
     <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">
@@ -16117,8 +16160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16143,7 +16186,9 @@
       <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="183">
+        <v>43020</v>
+      </c>
     </row>
     <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">

--- a/Documents/safe-电信行业部/轻量级监管.xlsx
+++ b/Documents/safe-电信行业部/轻量级监管.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="执行说明" sheetId="10" r:id="rId1"/>
@@ -18,19 +18,23 @@
     <sheet name="CP1" sheetId="1" r:id="rId4"/>
     <sheet name="CP2" sheetId="8" r:id="rId5"/>
     <sheet name="CP3.1" sheetId="19" r:id="rId6"/>
-    <sheet name="CP3.2" sheetId="3" r:id="rId7"/>
-    <sheet name="CP4" sheetId="4" r:id="rId8"/>
-    <sheet name="CP5" sheetId="5" r:id="rId9"/>
-    <sheet name="CP6" sheetId="6" r:id="rId10"/>
-    <sheet name="风险跟踪" sheetId="13" r:id="rId11"/>
-    <sheet name="标准故事" sheetId="18" r:id="rId12"/>
-    <sheet name="序列定义" sheetId="14" r:id="rId13"/>
-    <sheet name="变更履历" sheetId="16" r:id="rId14"/>
+    <sheet name="CP3.2" sheetId="21" r:id="rId7"/>
+    <sheet name="CP3.3" sheetId="3" r:id="rId8"/>
+    <sheet name="CP4" sheetId="4" r:id="rId9"/>
+    <sheet name="CP5" sheetId="5" r:id="rId10"/>
+    <sheet name="CP6" sheetId="6" r:id="rId11"/>
+    <sheet name="风险跟踪" sheetId="13" r:id="rId12"/>
+    <sheet name="标准故事" sheetId="18" r:id="rId13"/>
+    <sheet name="序列定义" sheetId="14" r:id="rId14"/>
+    <sheet name="变更履历" sheetId="16" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="风险分类">序列定义!$B$1:$B$7</definedName>
@@ -149,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="316">
   <si>
     <t>评审项</t>
   </si>
@@ -1503,10 +1507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>团队成员新人占比较高，速率低下，代码质量有待提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>须边解读大汉业务逻辑边研发功能，接口等；没有对接第三方应用厂家配合联调测试；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1538,6 +1538,33 @@
   </si>
   <si>
     <t>实际速率：292（实际完成故事点）/10（天）/14（人）=2.086 实际及理论速率：455（实际完成故事点）/10（天）/14（人）=3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP3：发布2Sprint2评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李荣、高鹏飞、肖阳阳、张磊、何兰许、张海龙、姜文鹏、姚希、杨夏、蔺晨曦、沈兴宏、张丛超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP3：发布3Sprint3评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李荣、高鹏飞、肖阳阳、张磊、姜文鹏、姚希、杨夏、蔺晨曦、沈兴宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队成员新人占比较高，速率低下，代码质量有待提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件规模：计划完成280个故事点，实际完成280个
+人均速率：本次迭代共计10天，故人均速率为280/14/8=2.5，发布燃尽图偏差：0.36
+团队目标达成率:1.0，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
+单元测试密度:50%，达到DOD标准。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2518,6 +2545,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2698,7 +2726,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3680,50 +3707,50 @@
               <c:f>[1]SprintBacklog!$AN$5:$BO$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -3734,50 +3761,50 @@
               <c:f>[1]SprintBacklog!$AN$7:$BO$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>943.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>943.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>940.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>838.39999999999975</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>767.1999999999997</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>663.5999999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>663.5999999999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>663.5999999999998</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>620.39999999999964</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>447.19999999999993</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>440.00000000000006</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>367.59999999999997</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
                   <c:v>168.00000000000003</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3793,8 +3820,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1585525504"/>
-        <c:axId val="1901202576"/>
+        <c:axId val="493145728"/>
+        <c:axId val="493140832"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3906,11 +3933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1585525504"/>
-        <c:axId val="1901202576"/>
+        <c:axId val="493145728"/>
+        <c:axId val="493140832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1585525504"/>
+        <c:axId val="493145728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3985,14 +4012,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1901202576"/>
+        <c:crossAx val="493140832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1901202576"/>
+        <c:axId val="493140832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4076,7 +4103,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585525504"/>
+        <c:crossAx val="493145728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4147,9 +4174,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:srgbClr val="333399"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
@@ -4157,15 +4184,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="333399"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:rPr>
-              <a:t>SCRUM发布燃尽图</a:t>
+              <a:rPr lang="en-US" altLang="en-US" sz="1800"/>
+              <a:t>SCRUM</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+              <a:t>发布燃尽图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4173,8 +4199,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38641145920589715"/>
-          <c:y val="2.0658731612036869E-2"/>
+          <c:x val="0.38641150171189231"/>
+          <c:y val="2.0658542972151684E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4209,29 +4235,6 @@
           <c:tx>
             <c:v>实际曲线</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="666699"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="666699"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="666699"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4239,26 +4242,6 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="Arial"/>
-                    <a:cs typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4313,28 +4296,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1054</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>620</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>410</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>410</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4347,27 +4330,6 @@
           <c:tx>
             <c:v>理想斜线</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="DD2D32"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C0504D"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="DD2D32"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>[2]发布燃尽图!$B$1:$C$1</c:f>
@@ -4393,7 +4355,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1054</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4408,11 +4370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1901203120"/>
-        <c:axId val="1901203664"/>
+        <c:axId val="493154976"/>
+        <c:axId val="493144640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1901203120"/>
+        <c:axId val="493154976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4447,14 +4409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1901203664"/>
+        <c:crossAx val="493144640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1901203664"/>
+        <c:axId val="493144640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4500,7 +4462,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1901203120"/>
+        <c:crossAx val="493154976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4545,7 +4507,7 @@
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4700,50 +4662,50 @@
               <c:f>[3]SprintBacklog!$AN$5:$BO$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -4754,50 +4716,50 @@
               <c:f>[3]SprintBacklog!$AN$7:$BO$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>218.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>218.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>201.60000000000005</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>201.60000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>201.60000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>201.60000000000005</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>201.60000000000005</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>201.60000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201.60000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>134.4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>105.6</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>105.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>38.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>38.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4813,8 +4775,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1901215088"/>
-        <c:axId val="1901204208"/>
+        <c:axId val="857344512"/>
+        <c:axId val="857339616"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4926,11 +4888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1901215088"/>
-        <c:axId val="1901204208"/>
+        <c:axId val="857344512"/>
+        <c:axId val="857339616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1901215088"/>
+        <c:axId val="857344512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -5005,14 +4967,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1901204208"/>
+        <c:crossAx val="857339616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1901204208"/>
+        <c:axId val="857339616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5096,7 +5058,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1901215088"/>
+        <c:crossAx val="857344512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5167,9 +5129,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:srgbClr val="333399"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
                 <a:ea typeface="Arial"/>
@@ -5177,15 +5139,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="333399"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:rPr>
-              <a:t>SCRUM发布燃尽图</a:t>
+              <a:rPr lang="en-US" altLang="en-US" sz="1800"/>
+              <a:t>SCRUM</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+              <a:t>发布燃尽图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5193,8 +5154,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38641145920589715"/>
-          <c:y val="2.0658731612036869E-2"/>
+          <c:x val="0.38641150171189231"/>
+          <c:y val="2.0658542972151684E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5229,29 +5190,6 @@
           <c:tx>
             <c:v>实际曲线</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="666699"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="666699"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="666699"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -5259,26 +5197,6 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="Arial"/>
-                    <a:cs typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5295,7 +5213,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]产品Backlog!$K$6:$R$6</c:f>
+              <c:f>[4]产品Backlog!$K$6:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5328,33 +5246,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]产品Backlog!$K$4:$R$4</c:f>
+              <c:f>[4]产品Backlog!$K$4:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1054</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>620</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>410</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>410</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5367,30 +5285,9 @@
           <c:tx>
             <c:v>理想斜线</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:srgbClr val="DD2D32"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C0504D"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="DD2D32"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]发布燃尽图!$B$1:$C$1</c:f>
+              <c:f>[4]发布燃尽图!$B$1:$C$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5405,7 +5302,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]发布燃尽图!$G$1:$H$1</c:f>
+              <c:f>[4]发布燃尽图!$G$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5413,7 +5310,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1054</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5428,11 +5325,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1901208560"/>
-        <c:axId val="1901208016"/>
+        <c:axId val="857333632"/>
+        <c:axId val="857334176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1901208560"/>
+        <c:axId val="857333632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5467,14 +5364,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1901208016"/>
+        <c:crossAx val="857334176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1901208016"/>
+        <c:axId val="857334176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5520,7 +5417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1901208560"/>
+        <c:crossAx val="857333632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5565,7 +5462,962 @@
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+                <a:cs typeface="Microsoft YaHei"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+              </a:rPr>
+              <a:t>Sprint 燃尽图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42711823984964842"/>
+          <c:y val="1.0807066044644107E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11908405823895103"/>
+          <c:y val="0.17910480393103601"/>
+          <c:w val="0.82595481419580119"/>
+          <c:h val="0.63059816384052103"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实际曲线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="A2BD90"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F6228"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="333300"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                    <a:cs typeface="Microsoft YaHei"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[5]SprintBacklog!$AN$5:$BO$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[5]SprintBacklog!$AN$7:$BO$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="904249520"/>
+        <c:axId val="904250064"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>理想斜线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="DD0806"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F6228"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="333300"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                    <a:cs typeface="Microsoft YaHei"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>([5]SprintBacklog!$E$4,[5]SprintBacklog!$J$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>([5]SprintBacklog!$J$4,[5]SprintBacklog!$AN$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="904249520"/>
+        <c:axId val="904250064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="904249520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                    <a:cs typeface="Microsoft YaHei"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>天数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48857742782152236"/>
+              <c:y val="0.87784826269757033"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+                <a:cs typeface="Microsoft YaHei"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904250064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="904250064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                  </a:rPr>
+                  <a:t>剩余时间（h）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+                <a:cs typeface="Microsoft YaHei"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904249520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Microsoft YaHei"/>
+          <a:ea typeface="Microsoft YaHei"/>
+          <a:cs typeface="Microsoft YaHei"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333399"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1800"/>
+              <a:t>SCRUM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+              <a:t>发布燃尽图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38641150171189231"/>
+          <c:y val="2.0658542972151684E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14370403379679336"/>
+          <c:y val="0.12081436171708342"/>
+          <c:w val="0.82720389202355848"/>
+          <c:h val="0.71309940330571187"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实际曲线</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[6]产品Backlog!$K$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[6]产品Backlog!$K$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>理想斜线</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[6]发布燃尽图!$B$1:$C$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[6]发布燃尽图!$G$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1024973312"/>
+        <c:axId val="1024973856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1024973312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024973856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1024973856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024973312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -11705,19 +12557,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5791200</xdr:colOff>
+      <xdr:colOff>5895975</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2562225</xdr:rowOff>
+      <xdr:rowOff>2781301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 6"/>
+        <xdr:cNvPr id="4" name="图表 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11774,19 +12626,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6257925</xdr:colOff>
+      <xdr:colOff>5991225</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2581275</xdr:rowOff>
+      <xdr:rowOff>2476501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 6"/>
+        <xdr:cNvPr id="3" name="图表 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11807,6 +12659,75 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5943600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3013982</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6172200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2562225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12120,33 +13041,33 @@
       <sheetName val="变更履历"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="K4">
-            <v>1054</v>
+            <v>1302</v>
           </cell>
           <cell r="L4">
-            <v>620</v>
+            <v>969</v>
           </cell>
           <cell r="M4">
-            <v>410</v>
+            <v>969</v>
           </cell>
           <cell r="N4">
-            <v>410</v>
+            <v>969</v>
           </cell>
           <cell r="O4">
-            <v>410</v>
+            <v>969</v>
           </cell>
           <cell r="P4">
-            <v>410</v>
+            <v>969</v>
           </cell>
           <cell r="Q4">
-            <v>410</v>
+            <v>969</v>
           </cell>
           <cell r="R4">
-            <v>410</v>
+            <v>969</v>
           </cell>
         </row>
         <row r="6">
@@ -12176,7 +13097,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="1">
           <cell r="B1">
@@ -12189,13 +13110,13 @@
             <v>0</v>
           </cell>
           <cell r="H1">
-            <v>1054</v>
+            <v>1302</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12215,8 +13136,8 @@
       <sheetName val="字典"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="E4">
@@ -12321,8 +13242,328 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="规划部分"/>
+      <sheetName val="产品规划"/>
+      <sheetName val="产品Backlog"/>
+      <sheetName val="团队速率"/>
+      <sheetName val="发布燃尽图"/>
+      <sheetName val="估算回顾"/>
+      <sheetName val="标准故事"/>
+      <sheetName val="变更履历"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="K4">
+            <v>1302</v>
+          </cell>
+          <cell r="L4">
+            <v>827</v>
+          </cell>
+          <cell r="M4">
+            <v>555</v>
+          </cell>
+          <cell r="N4">
+            <v>555</v>
+          </cell>
+          <cell r="O4">
+            <v>555</v>
+          </cell>
+          <cell r="P4">
+            <v>555</v>
+          </cell>
+          <cell r="Q4">
+            <v>555</v>
+          </cell>
+          <cell r="R4">
+            <v>555</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>1</v>
+          </cell>
+          <cell r="M6">
+            <v>2</v>
+          </cell>
+          <cell r="N6">
+            <v>3</v>
+          </cell>
+          <cell r="O6">
+            <v>4</v>
+          </cell>
+          <cell r="P6">
+            <v>5</v>
+          </cell>
+          <cell r="Q6">
+            <v>6</v>
+          </cell>
+          <cell r="R6">
+            <v>7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="B1">
+            <v>7</v>
+          </cell>
+          <cell r="C1">
+            <v>0</v>
+          </cell>
+          <cell r="G1">
+            <v>0</v>
+          </cell>
+          <cell r="H1">
+            <v>1302</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SprintBacklog (2)"/>
+      <sheetName val="SprintBacklog3.1-计划会"/>
+      <sheetName val="SprintBacklog"/>
+      <sheetName val="原始数据"/>
+      <sheetName val="回顾"/>
+      <sheetName val="障碍列表"/>
+      <sheetName val="变更履历"/>
+      <sheetName val="字典"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="E4">
+            <v>14</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AN5">
+            <v>0</v>
+          </cell>
+          <cell r="AO5">
+            <v>1</v>
+          </cell>
+          <cell r="AQ5">
+            <v>2</v>
+          </cell>
+          <cell r="AS5">
+            <v>3</v>
+          </cell>
+          <cell r="AU5">
+            <v>4</v>
+          </cell>
+          <cell r="AW5">
+            <v>5</v>
+          </cell>
+          <cell r="AY5">
+            <v>6</v>
+          </cell>
+          <cell r="BA5">
+            <v>7</v>
+          </cell>
+          <cell r="BC5">
+            <v>8</v>
+          </cell>
+          <cell r="BE5">
+            <v>9</v>
+          </cell>
+          <cell r="BG5">
+            <v>10</v>
+          </cell>
+          <cell r="BI5">
+            <v>11</v>
+          </cell>
+          <cell r="BK5">
+            <v>12</v>
+          </cell>
+          <cell r="BM5">
+            <v>13</v>
+          </cell>
+          <cell r="BO5">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AN7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="AO7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="AQ7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="AS7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="AU7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="AW7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="AY7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="BA7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="BC7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="BE7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="BG7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="BI7">
+            <v>447.99999999999994</v>
+          </cell>
+          <cell r="BK7">
+            <v>0</v>
+          </cell>
+          <cell r="BM7">
+            <v>0</v>
+          </cell>
+          <cell r="BO7">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="规划部分"/>
+      <sheetName val="产品规划"/>
+      <sheetName val="产品Backlog"/>
+      <sheetName val="团队速率"/>
+      <sheetName val="发布燃尽图"/>
+      <sheetName val="估算回顾"/>
+      <sheetName val="标准故事"/>
+      <sheetName val="变更履历"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="K4">
+            <v>1302</v>
+          </cell>
+          <cell r="L4">
+            <v>827</v>
+          </cell>
+          <cell r="M4">
+            <v>555</v>
+          </cell>
+          <cell r="N4">
+            <v>275</v>
+          </cell>
+          <cell r="O4">
+            <v>275</v>
+          </cell>
+          <cell r="P4">
+            <v>275</v>
+          </cell>
+          <cell r="Q4">
+            <v>275</v>
+          </cell>
+          <cell r="R4">
+            <v>275</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>1</v>
+          </cell>
+          <cell r="M6">
+            <v>2</v>
+          </cell>
+          <cell r="N6">
+            <v>3</v>
+          </cell>
+          <cell r="O6">
+            <v>4</v>
+          </cell>
+          <cell r="P6">
+            <v>5</v>
+          </cell>
+          <cell r="Q6">
+            <v>6</v>
+          </cell>
+          <cell r="R6">
+            <v>7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="B1">
+            <v>7</v>
+          </cell>
+          <cell r="C1">
+            <v>0</v>
+          </cell>
+          <cell r="G1">
+            <v>0</v>
+          </cell>
+          <cell r="H1">
+            <v>1302</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -12712,80 +13953,80 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="124" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="123" t="s">
+      <c r="F10" s="124" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="127" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="127" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="130" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="47" t="s">
@@ -12794,59 +14035,59 @@
       <c r="E16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="130" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="42" t="s">
         <v>163</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="124"/>
+      <c r="F17" s="125"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="42" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="124"/>
+      <c r="F18" s="125"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="42" t="s">
         <v>164</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="124"/>
+      <c r="F19" s="125"/>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="125"/>
+      <c r="F20" s="126"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="127" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="44" t="s">
@@ -12855,101 +14096,101 @@
       <c r="E21" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="126" t="s">
+      <c r="F21" s="127" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="127"/>
+      <c r="F22" s="128"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="9"/>
       <c r="E23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="128"/>
+      <c r="F23" s="129"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="130" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="129" t="s">
+      <c r="D24" s="130" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="130" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="124"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="124"/>
+      <c r="D25" s="125"/>
       <c r="E25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="124"/>
+      <c r="F25" s="125"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="124"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="124"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="124"/>
+      <c r="F26" s="125"/>
     </row>
     <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="125"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="125"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="125"/>
+      <c r="F27" s="126"/>
     </row>
     <row r="28" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="126" t="s">
+      <c r="D28" s="127" t="s">
         <v>95</v>
       </c>
       <c r="E28" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="126" t="s">
+      <c r="F28" s="127" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="128"/>
+      <c r="F29" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -12988,6 +14229,135 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="17"/>
+    <col min="2" max="2" width="25.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="83.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="2:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="78"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -13089,7 +14459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U27"/>
   <sheetViews>
@@ -13112,123 +14482,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="168" t="s">
+      <c r="B6" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="174" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="170" t="s">
+      <c r="E6" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="169" t="s">
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="170" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="168"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="168"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="169"/>
       <c r="E7" s="18" t="s">
         <v>152</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="175" t="s">
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="178"/>
       <c r="S7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="T7" s="169"/>
+      <c r="T7" s="170"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="178">
+      <c r="A8" s="179">
         <v>1</v>
       </c>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="179" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -13237,399 +14607,399 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="164" t="s">
+      <c r="G8" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="167"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="168"/>
       <c r="S8" s="21"/>
       <c r="T8" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="178"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="20" t="s">
         <v>156</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="164" t="s">
+      <c r="G9" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="167"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="168"/>
       <c r="S9" s="21"/>
       <c r="T9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="178"/>
-      <c r="B10" s="178"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="178"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="164" t="s">
+      <c r="G10" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="167"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="168"/>
       <c r="S10" s="21"/>
       <c r="T10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="178"/>
-      <c r="B11" s="178"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="178"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="20"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="167"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="168"/>
       <c r="S11" s="21"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="178"/>
-      <c r="B12" s="178"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="178"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="167"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="168"/>
       <c r="S12" s="21"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="181"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="181"/>
-      <c r="S13" s="181"/>
-      <c r="T13" s="181"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="182"/>
+      <c r="S13" s="182"/>
+      <c r="T13" s="182"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="178">
+      <c r="A14" s="179">
         <v>2</v>
       </c>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="178"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="20"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="163"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="164"/>
       <c r="S14" s="21"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="178"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="178"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="20"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="163"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="164"/>
       <c r="S15" s="21"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="178"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="163"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="164"/>
       <c r="S16" s="21"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="178"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="178"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="20"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="163"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
       <c r="S17" s="21"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="178"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="178"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="163"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="164"/>
       <c r="S18" s="21"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="179"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="179"/>
-      <c r="P19" s="179"/>
-      <c r="Q19" s="179"/>
-      <c r="R19" s="179"/>
-      <c r="S19" s="179"/>
-      <c r="T19" s="179"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="180"/>
+      <c r="Q19" s="180"/>
+      <c r="R19" s="180"/>
+      <c r="S19" s="180"/>
+      <c r="T19" s="180"/>
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="178">
+      <c r="A20" s="179">
         <v>3</v>
       </c>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="178"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="20"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="163"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="164"/>
       <c r="S20" s="21"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="178"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="178"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="163"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="164"/>
       <c r="S21" s="21"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="178"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="178"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="163"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="164"/>
       <c r="S22" s="21"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="178"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="178"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="20"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="163"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="164"/>
       <c r="S23" s="21"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="178"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="178"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="162"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="163"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="164"/>
       <c r="S24" s="21"/>
       <c r="T24" s="2"/>
     </row>
@@ -13766,7 +15136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -14127,7 +15497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -14203,7 +15573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -14220,14 +15590,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="183" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
     </row>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="98" t="s">
@@ -14369,99 +15739,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="133" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="110"/>
       <c r="G9" s="110"/>
-      <c r="H9" s="133" t="s">
+      <c r="H9" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="133" t="s">
+      <c r="I9" s="134" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="111"/>
@@ -14469,10 +15839,10 @@
       <c r="L9" s="111"/>
       <c r="M9" s="111"/>
       <c r="N9" s="111"/>
-      <c r="O9" s="132" t="s">
+      <c r="O9" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="P9" s="132" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="110" t="s">
@@ -14486,10 +15856,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="131"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="132"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="111" t="s">
         <v>31</v>
       </c>
@@ -14499,8 +15869,8 @@
       <c r="G10" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="111" t="s">
         <v>36</v>
       </c>
@@ -14516,8 +15886,8 @@
       <c r="N10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="132"/>
-      <c r="P10" s="131"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="132"/>
       <c r="Q10" s="110"/>
       <c r="R10" s="110"/>
       <c r="S10" s="110"/>
@@ -14597,7 +15967,7 @@
         <v>292</v>
       </c>
       <c r="F13" s="119" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="51"/>
@@ -14951,22 +16321,22 @@
       <c r="S26" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="130"/>
+      <c r="B28" s="131"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="130"/>
+      <c r="B29" s="131"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="130"/>
+      <c r="B30" s="131"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
@@ -15367,19 +16737,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
       <c r="L2" s="83"/>
       <c r="M2" s="83"/>
     </row>
@@ -15402,38 +16772,38 @@
       <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141" t="s">
+      <c r="D4" s="141"/>
+      <c r="E4" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142" t="s">
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142" t="s">
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
       <c r="N4" s="97" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="138"/>
-      <c r="B5" s="138"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="53" t="s">
         <v>205</v>
       </c>
@@ -15497,7 +16867,7 @@
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="143"/>
+      <c r="N6" s="144"/>
     </row>
     <row r="7" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
@@ -15517,7 +16887,7 @@
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="144"/>
+      <c r="N7" s="145"/>
     </row>
     <row r="8" spans="1:14" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
@@ -15547,35 +16917,35 @@
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="145"/>
+      <c r="N8" s="146"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="147"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="86"/>
@@ -15598,32 +16968,32 @@
       <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150" t="s">
+      <c r="C14" s="151"/>
+      <c r="D14" s="151" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150" t="s">
+      <c r="E14" s="151"/>
+      <c r="F14" s="151" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150" t="s">
+      <c r="G14" s="151"/>
+      <c r="H14" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150" t="s">
+      <c r="I14" s="151"/>
+      <c r="J14" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="150"/>
+      <c r="K14" s="151"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="149"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="52" t="s">
         <v>220</v>
       </c>
@@ -15851,28 +17221,28 @@
       <c r="C9" s="59"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="154" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="152"/>
-      <c r="C11" s="154"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="155"/>
     </row>
     <row r="12" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="154" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="157"/>
-      <c r="C13" s="155"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="156"/>
     </row>
     <row r="14" spans="2:3" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
@@ -16032,8 +17402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16058,7 +17428,7 @@
       <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="183">
+      <c r="C3" s="123">
         <v>42996</v>
       </c>
     </row>
@@ -16083,7 +17453,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16160,8 +17530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16179,14 +17549,14 @@
         <v>68</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="183">
+      <c r="C3" s="123">
         <v>43020</v>
       </c>
     </row>
@@ -16195,7 +17565,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="118" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16203,7 +17573,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -16211,7 +17581,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16219,7 +17589,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
@@ -16237,7 +17607,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16245,7 +17615,7 @@
         <v>176</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -16253,7 +17623,7 @@
         <v>177</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="246" customHeight="1" x14ac:dyDescent="0.15">
@@ -16273,7 +17643,135 @@
         <v>198</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="17"/>
+    <col min="2" max="2" width="30.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="83.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="123">
+        <v>43031</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="2:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="246" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="2:3" ht="218.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -16289,7 +17787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C11"/>
   <sheetViews>
@@ -16378,133 +17876,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11" style="17"/>
-    <col min="2" max="2" width="25.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="83.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="38.625" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="26"/>
-    </row>
-    <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="28"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-    </row>
-    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="32"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="2:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="78"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Documents/safe-电信行业部/轻量级监管.xlsx
+++ b/Documents/safe-电信行业部/轻量级监管.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="执行说明" sheetId="10" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="318">
   <si>
     <t>评审项</t>
   </si>
@@ -1565,6 +1565,16 @@
 人均速率：本次迭代共计10天，故人均速率为280/14/8=2.5，发布燃尽图偏差：0.36
 团队目标达成率:1.0，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
 单元测试密度:50%，达到DOD标准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO：李荣
+SM:高鹏飞
+团队：肖阳阳、张磊、姜文鹏、姚希、杨夏、蔺晨曦、沈兴宏、周凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际速率：280（实际完成故事点）/10（天）/14（人）=2.5实际及理论速率：208（实际完成故事点）/10（天）/14（人）=2.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2546,7 +2556,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2558,26 +2568,14 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2585,26 +2583,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2630,6 +2619,27 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2651,6 +2661,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2659,27 +2684,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2711,16 +2715,22 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3697,7 +3707,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3820,8 +3829,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="493145728"/>
-        <c:axId val="493140832"/>
+        <c:axId val="-429011248"/>
+        <c:axId val="-429006352"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3888,7 +3897,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3933,11 +3941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="493145728"/>
-        <c:axId val="493140832"/>
+        <c:axId val="-429011248"/>
+        <c:axId val="-429006352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="493145728"/>
+        <c:axId val="-429011248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4012,14 +4020,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493140832"/>
+        <c:crossAx val="-429006352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493140832"/>
+        <c:axId val="-429006352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4065,7 +4073,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4103,7 +4110,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493145728"/>
+        <c:crossAx val="-429011248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4251,7 +4258,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4370,11 +4376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="493154976"/>
-        <c:axId val="493144640"/>
+        <c:axId val="-429013968"/>
+        <c:axId val="-429006896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="493154976"/>
+        <c:axId val="-429013968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,14 +4415,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493144640"/>
+        <c:crossAx val="-429006896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493144640"/>
+        <c:axId val="-429006896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4462,7 +4468,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493154976"/>
+        <c:crossAx val="-429013968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4652,7 +4658,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4775,8 +4780,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="857344512"/>
-        <c:axId val="857339616"/>
+        <c:axId val="-429013424"/>
+        <c:axId val="-429015056"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4843,7 +4848,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4888,11 +4892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="857344512"/>
-        <c:axId val="857339616"/>
+        <c:axId val="-429013424"/>
+        <c:axId val="-429015056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="857344512"/>
+        <c:axId val="-429013424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4967,14 +4971,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="857339616"/>
+        <c:crossAx val="-429015056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="857339616"/>
+        <c:axId val="-429015056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5020,7 +5024,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5058,7 +5061,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="857344512"/>
+        <c:crossAx val="-429013424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5206,7 +5209,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5325,11 +5327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="857333632"/>
-        <c:axId val="857334176"/>
+        <c:axId val="-429010160"/>
+        <c:axId val="-429021584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="857333632"/>
+        <c:axId val="-429010160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5364,14 +5366,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="857334176"/>
+        <c:crossAx val="-429021584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="857334176"/>
+        <c:axId val="-429021584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5417,7 +5419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="857333632"/>
+        <c:crossAx val="-429010160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5617,50 +5619,50 @@
               <c:f>[5]SprintBacklog!$AN$5:$BO$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -5671,50 +5673,50 @@
               <c:f>[5]SprintBacklog!$AN$7:$BO$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>447.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>447.99999999999994</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>447.99999999999994</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>447.99999999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>447.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>447.99999999999994</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>447.99999999999994</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>447.99999999999994</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>447.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>447.99999999999994</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>447.99999999999994</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>447.99999999999994</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>447.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5730,8 +5732,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="904249520"/>
-        <c:axId val="904250064"/>
+        <c:axId val="-429009616"/>
+        <c:axId val="-429011792"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5843,11 +5845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="904249520"/>
-        <c:axId val="904250064"/>
+        <c:axId val="-429009616"/>
+        <c:axId val="-429011792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="904249520"/>
+        <c:axId val="-429009616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -5922,14 +5924,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904250064"/>
+        <c:crossAx val="-429011792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="904250064"/>
+        <c:axId val="-429011792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6013,7 +6015,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904249520"/>
+        <c:crossAx val="-429009616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6280,11 +6282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1024973312"/>
-        <c:axId val="1024973856"/>
+        <c:axId val="-429014512"/>
+        <c:axId val="-429012880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1024973312"/>
+        <c:axId val="-429014512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6319,14 +6321,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1024973856"/>
+        <c:crossAx val="-429012880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1024973856"/>
+        <c:axId val="-429012880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6372,7 +6374,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1024973312"/>
+        <c:crossAx val="-429014512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13953,19 +13955,19 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="130" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="130" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14005,28 +14007,28 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="124" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="47" t="s">
@@ -14035,7 +14037,7 @@
       <c r="E16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="124" t="s">
         <v>162</v>
       </c>
     </row>
@@ -14101,39 +14103,39 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="128"/>
+      <c r="F22" s="129"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="9"/>
       <c r="E23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="129"/>
+      <c r="F23" s="128"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="124" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="124" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="124" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14184,29 +14186,16 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="129"/>
+      <c r="F29" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:E12"/>
@@ -14215,6 +14204,19 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14482,123 +14484,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="171" t="s">
+      <c r="E6" s="169" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="170" t="s">
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="168" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="169"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="18" t="s">
         <v>152</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="176" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="178"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="176"/>
       <c r="S7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="T7" s="170"/>
+      <c r="T7" s="168"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="179">
+      <c r="A8" s="162">
         <v>1</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="179" t="s">
+      <c r="D8" s="162" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -14607,399 +14609,399 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="165" t="s">
+      <c r="G8" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="168"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="178"/>
+      <c r="R8" s="179"/>
       <c r="S8" s="21"/>
       <c r="T8" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="179"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="179"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="162"/>
       <c r="E9" s="20" t="s">
         <v>156</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="165" t="s">
+      <c r="G9" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="168"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="179"/>
       <c r="S9" s="21"/>
       <c r="T9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="179"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="179"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="162"/>
       <c r="E10" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="165" t="s">
+      <c r="G10" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="168"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="179"/>
       <c r="S10" s="21"/>
       <c r="T10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="179"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="179"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="20"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="168"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="179"/>
       <c r="S11" s="21"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="179"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="162"/>
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="168"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="179"/>
       <c r="S12" s="21"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="182"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="182"/>
-      <c r="S13" s="182"/>
-      <c r="T13" s="182"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="161"/>
+      <c r="T13" s="161"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="179">
+      <c r="A14" s="162">
         <v>2</v>
       </c>
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="179"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="162"/>
       <c r="E14" s="20"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="164"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="182"/>
       <c r="S14" s="21"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="179"/>
-      <c r="B15" s="179"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="179"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="20"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="164"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="182"/>
       <c r="S15" s="21"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="179"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="164"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="182"/>
       <c r="S16" s="21"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="179"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="162"/>
       <c r="E17" s="20"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="164"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="182"/>
       <c r="S17" s="21"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="179"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="179"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="164"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="182"/>
       <c r="S18" s="21"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="180"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="180"/>
-      <c r="Q19" s="180"/>
-      <c r="R19" s="180"/>
-      <c r="S19" s="180"/>
-      <c r="T19" s="180"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="159"/>
+      <c r="T19" s="159"/>
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="179">
+      <c r="A20" s="162">
         <v>3</v>
       </c>
-      <c r="B20" s="179" t="s">
+      <c r="B20" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="179"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="162"/>
       <c r="E20" s="20"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="164"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="182"/>
       <c r="S20" s="21"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="179"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="179"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="162"/>
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="164"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="182"/>
       <c r="S21" s="21"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="179"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="162"/>
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="164"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="182"/>
       <c r="S22" s="21"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="179"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="179"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="20"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="164"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="182"/>
       <c r="S23" s="21"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="179"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="164"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
       <c r="S24" s="21"/>
       <c r="T24" s="2"/>
     </row>
@@ -15014,6 +15016,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C8:C12"/>
     <mergeCell ref="A19:T19"/>
     <mergeCell ref="B2:L4"/>
     <mergeCell ref="A13:T13"/>
@@ -15030,43 +15069,6 @@
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="G14:N14"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="C14:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T8:T12 T25:T27">
@@ -15720,8 +15722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15739,99 +15741,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="135" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="110"/>
       <c r="G9" s="110"/>
-      <c r="H9" s="134" t="s">
+      <c r="H9" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="134" t="s">
+      <c r="I9" s="136" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="111"/>
@@ -15839,10 +15841,10 @@
       <c r="L9" s="111"/>
       <c r="M9" s="111"/>
       <c r="N9" s="111"/>
-      <c r="O9" s="133" t="s">
+      <c r="O9" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="132" t="s">
+      <c r="P9" s="133" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="110" t="s">
@@ -15856,10 +15858,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="111" t="s">
         <v>31</v>
       </c>
@@ -15869,8 +15871,8 @@
       <c r="G10" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
       <c r="J10" s="111" t="s">
         <v>36</v>
       </c>
@@ -15886,8 +15888,8 @@
       <c r="N10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="133"/>
-      <c r="P10" s="132"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="133"/>
       <c r="Q10" s="110"/>
       <c r="R10" s="110"/>
       <c r="S10" s="110"/>
@@ -15911,7 +15913,9 @@
       <c r="F11" s="8">
         <v>455</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>280</v>
+      </c>
       <c r="H11" s="51"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -15940,7 +15944,9 @@
       <c r="F12" s="8">
         <v>292</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>280</v>
+      </c>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
       <c r="J12" s="8"/>
@@ -15969,7 +15975,9 @@
       <c r="F13" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="119" t="s">
+        <v>317</v>
+      </c>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
       <c r="J13" s="8"/>
@@ -15998,7 +16006,9 @@
       <c r="F14" s="8">
         <v>-0.32500000000000001</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8">
+        <v>-0.36</v>
+      </c>
       <c r="H14" s="114"/>
       <c r="I14" s="51"/>
       <c r="J14" s="8"/>
@@ -16027,7 +16037,9 @@
       <c r="F15" s="8">
         <v>0.64</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
       <c r="J15" s="8"/>
@@ -16306,7 +16318,9 @@
       <c r="F26" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="109" t="s">
+        <v>316</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="51"/>
       <c r="J26" s="8"/>
@@ -16321,22 +16335,22 @@
       <c r="S26" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="134"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="134"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="134"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
@@ -16497,11 +16511,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="C9:C10"/>
@@ -16509,6 +16518,11 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A2:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E36:E37">
@@ -16737,19 +16751,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="83"/>
       <c r="M2" s="83"/>
     </row>
@@ -16772,38 +16786,38 @@
       <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="148" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="150" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143" t="s">
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143" t="s">
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
       <c r="N4" s="97" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="53" t="s">
         <v>205</v>
       </c>
@@ -16867,7 +16881,7 @@
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="144"/>
+      <c r="N6" s="137"/>
     </row>
     <row r="7" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
@@ -16887,7 +16901,7 @@
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="145"/>
+      <c r="N7" s="138"/>
     </row>
     <row r="8" spans="1:14" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
@@ -16917,35 +16931,35 @@
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="146"/>
+      <c r="N8" s="139"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="140" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="148"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="86"/>
@@ -16968,32 +16982,32 @@
       <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="142" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="144" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151" t="s">
+      <c r="C14" s="144"/>
+      <c r="D14" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151" t="s">
+      <c r="E14" s="144"/>
+      <c r="F14" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151" t="s">
+      <c r="G14" s="144"/>
+      <c r="H14" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151" t="s">
+      <c r="I14" s="144"/>
+      <c r="J14" s="144" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="151"/>
+      <c r="K14" s="144"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="150"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="52" t="s">
         <v>220</v>
       </c>
@@ -17132,6 +17146,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="A10:K11"/>
     <mergeCell ref="A14:A15"/>
@@ -17140,13 +17161,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17658,7 +17672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Documents/safe-电信行业部/轻量级监管.xlsx
+++ b/Documents/safe-电信行业部/轻量级监管.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="执行说明" sheetId="10" r:id="rId1"/>
@@ -1457,10 +1457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际速率：330（实际完成故事点）/10（天）/14（人）=2.36 实际及理论速率：475（实际完成故事点）/10（天）/14（人）=3.39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sprint1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1490,13 +1486,6 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件规模：计划完成475个故事点，实际完成330个
-人均速率：本次迭代共计10天，故人均速率为330/14/10=2.36，发布燃尽图偏差：0.3
-团队目标达成率:0.69，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
-单元测试密度:50%，达到DOD标准。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1530,17 +1519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件规模：计划完成455个故事点，实际完成292个
-人均速率：本次迭代共计10天，故人均速率为292/14/10=2.085，发布燃尽图偏差：0.325
-团队目标达成率:0.64，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
-单元测试密度:50%，达到DOD标准。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际速率：292（实际完成故事点）/10（天）/14（人）=2.086 实际及理论速率：455（实际完成故事点）/10（天）/14（人）=3.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CP3：发布2Sprint2评审</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,13 +1536,6 @@
   </si>
   <si>
     <t>团队成员新人占比较高，速率低下，代码质量有待提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件规模：计划完成280个故事点，实际完成280个
-人均速率：本次迭代共计10天，故人均速率为280/14/8=2.5，发布燃尽图偏差：0.36
-团队目标达成率:1.0，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
-单元测试密度:50%，达到DOD标准。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1574,7 +1545,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际速率：280（实际完成故事点）/10（天）/14（人）=2.5实际及理论速率：208（实际完成故事点）/10（天）/14（人）=2.5</t>
+    <t>实际速率：333（实际完成故事点）/10（天）/14（人）=2.379 实际及理论速率：475（实际完成故事点）/10（天）/14（人）=3.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际速率：292（实际完成故事点）/10（天）/12（人）=2.433 实际及理论速率：327（实际完成故事点）/10（天）/12（人）=2.725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际速率：280（实际完成故事点）/10（天）/8（人）=3.5实际及理论速率：280（实际完成故事点）/10（天）/8（人）=3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件规模：计划完成475个故事点，实际完成333个
+人均速率：本次迭代共计10天，故人均速率为333/14/10=2.379，发布燃尽图偏差：-0.113
+团队目标达成率:0.701，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
+单元测试密度:50%，达到DOD标准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件规模：计划完成327个故事点，实际完成292个
+人均速率：本次迭代共计10天，故人均速率为292/12/10=2.433，发布燃尽图偏差：-0.303
+团队目标达成率:0.893，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
+单元测试密度:50%，达到DOD标准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件规模：计划完成280个故事点，实际完成280个
+人均速率：本次迭代共计10天，故人均速率为280/8/10=3.5，发布燃尽图偏差：-0.376
+团队目标达成率:1.0，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
+单元测试密度:50%，达到DOD标准。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2556,7 +2556,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2568,14 +2568,26 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2583,17 +2595,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2619,27 +2640,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2661,21 +2661,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2684,6 +2669,27 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2715,22 +2721,16 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3707,6 +3707,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3829,8 +3830,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-429011248"/>
-        <c:axId val="-429006352"/>
+        <c:axId val="-840565184"/>
+        <c:axId val="-840562464"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3897,6 +3898,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3941,11 +3943,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-429011248"/>
-        <c:axId val="-429006352"/>
+        <c:axId val="-840565184"/>
+        <c:axId val="-840562464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-429011248"/>
+        <c:axId val="-840565184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4020,14 +4022,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429006352"/>
+        <c:crossAx val="-840562464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-429006352"/>
+        <c:axId val="-840562464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4073,6 +4075,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4110,7 +4113,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429011248"/>
+        <c:crossAx val="-840565184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4258,6 +4261,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4376,11 +4380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-429013968"/>
-        <c:axId val="-429006896"/>
+        <c:axId val="-840563008"/>
+        <c:axId val="-840577152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-429013968"/>
+        <c:axId val="-840563008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,14 +4419,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429006896"/>
+        <c:crossAx val="-840577152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-429006896"/>
+        <c:axId val="-840577152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4468,7 +4472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429013968"/>
+        <c:crossAx val="-840563008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4658,6 +4662,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4780,8 +4785,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-429013424"/>
-        <c:axId val="-429015056"/>
+        <c:axId val="-840564640"/>
+        <c:axId val="-840563552"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4848,6 +4853,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4892,11 +4898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-429013424"/>
-        <c:axId val="-429015056"/>
+        <c:axId val="-840564640"/>
+        <c:axId val="-840563552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-429013424"/>
+        <c:axId val="-840564640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4971,14 +4977,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429015056"/>
+        <c:crossAx val="-840563552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-429015056"/>
+        <c:axId val="-840563552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5024,6 +5030,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5061,7 +5068,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429013424"/>
+        <c:crossAx val="-840564640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5209,6 +5216,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5259,22 +5267,22 @@
                   <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>555</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>555</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>555</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>555</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>555</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5327,11 +5335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-429010160"/>
-        <c:axId val="-429021584"/>
+        <c:axId val="-840572800"/>
+        <c:axId val="-840576608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-429010160"/>
+        <c:axId val="-840572800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5366,14 +5374,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429021584"/>
+        <c:crossAx val="-840576608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-429021584"/>
+        <c:axId val="-840576608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5419,7 +5427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429010160"/>
+        <c:crossAx val="-840572800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5732,8 +5740,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-429009616"/>
-        <c:axId val="-429011792"/>
+        <c:axId val="-840571712"/>
+        <c:axId val="-840575520"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5845,11 +5853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-429009616"/>
-        <c:axId val="-429011792"/>
+        <c:axId val="-840571712"/>
+        <c:axId val="-840575520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-429009616"/>
+        <c:axId val="-840571712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -5924,14 +5932,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429011792"/>
+        <c:crossAx val="-840575520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-429011792"/>
+        <c:axId val="-840575520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6015,7 +6023,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429009616"/>
+        <c:crossAx val="-840571712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6214,22 +6222,22 @@
                   <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>555</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>275</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6282,11 +6290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-429014512"/>
-        <c:axId val="-429012880"/>
+        <c:axId val="-840564096"/>
+        <c:axId val="-840574976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-429014512"/>
+        <c:axId val="-840564096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6321,14 +6329,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429012880"/>
+        <c:crossAx val="-840574976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-429012880"/>
+        <c:axId val="-840574976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6374,7 +6382,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-429014512"/>
+        <c:crossAx val="-840564096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13279,22 +13287,22 @@
             <v>827</v>
           </cell>
           <cell r="M4">
-            <v>555</v>
+            <v>535</v>
           </cell>
           <cell r="N4">
-            <v>555</v>
+            <v>535</v>
           </cell>
           <cell r="O4">
-            <v>555</v>
+            <v>535</v>
           </cell>
           <cell r="P4">
-            <v>555</v>
+            <v>535</v>
           </cell>
           <cell r="Q4">
-            <v>555</v>
+            <v>535</v>
           </cell>
           <cell r="R4">
-            <v>555</v>
+            <v>535</v>
           </cell>
         </row>
         <row r="6">
@@ -13504,22 +13512,22 @@
             <v>827</v>
           </cell>
           <cell r="M4">
-            <v>555</v>
+            <v>535</v>
           </cell>
           <cell r="N4">
-            <v>275</v>
+            <v>255</v>
           </cell>
           <cell r="O4">
-            <v>275</v>
+            <v>255</v>
           </cell>
           <cell r="P4">
-            <v>275</v>
+            <v>255</v>
           </cell>
           <cell r="Q4">
-            <v>275</v>
+            <v>255</v>
           </cell>
           <cell r="R4">
-            <v>275</v>
+            <v>255</v>
           </cell>
         </row>
         <row r="6">
@@ -13955,19 +13963,19 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="124" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="130" t="s">
+      <c r="E10" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="124" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14007,28 +14015,28 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="130" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="47" t="s">
@@ -14037,7 +14045,7 @@
       <c r="E16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="124" t="s">
+      <c r="F16" s="130" t="s">
         <v>162</v>
       </c>
     </row>
@@ -14103,39 +14111,39 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="129"/>
+      <c r="F22" s="128"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="9"/>
       <c r="E23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="128"/>
+      <c r="F23" s="129"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="130" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="130" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="124" t="s">
+      <c r="F24" s="130" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14186,16 +14194,29 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="128"/>
+      <c r="F29" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:E12"/>
@@ -14204,19 +14225,6 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14484,123 +14492,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="174" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="169" t="s">
+      <c r="E6" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="168" t="s">
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="170" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="167"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="167"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="169"/>
       <c r="E7" s="18" t="s">
         <v>152</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="174" t="s">
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="176"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="178"/>
       <c r="S7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="T7" s="168"/>
+      <c r="T7" s="170"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="162">
+      <c r="A8" s="179">
         <v>1</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="162" t="s">
+      <c r="D8" s="179" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -14609,399 +14617,399 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="163" t="s">
+      <c r="G8" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="179"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="168"/>
       <c r="S8" s="21"/>
       <c r="T8" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="162"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="20" t="s">
         <v>156</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="163" t="s">
+      <c r="G9" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="179"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="168"/>
       <c r="S9" s="21"/>
       <c r="T9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="162"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="162"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="163" t="s">
+      <c r="G10" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="179"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="168"/>
       <c r="S10" s="21"/>
       <c r="T10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="162"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="162"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="20"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="177"/>
-      <c r="P11" s="178"/>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="179"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="168"/>
       <c r="S11" s="21"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="162"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="162"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="178"/>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="179"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="168"/>
       <c r="S12" s="21"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="161"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="182"/>
+      <c r="S13" s="182"/>
+      <c r="T13" s="182"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="162">
+      <c r="A14" s="179">
         <v>2</v>
       </c>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="162"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="20"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="182"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="164"/>
       <c r="S14" s="21"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="162"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="162"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="20"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="181"/>
-      <c r="R15" s="182"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="164"/>
       <c r="S15" s="21"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="162"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="162"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="182"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="164"/>
       <c r="S16" s="21"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="162"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="162"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="179"/>
       <c r="E17" s="20"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="182"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
       <c r="S17" s="21"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="162"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="162"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="182"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="164"/>
       <c r="S18" s="21"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="159"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="159"/>
-      <c r="S19" s="159"/>
-      <c r="T19" s="159"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="180"/>
+      <c r="Q19" s="180"/>
+      <c r="R19" s="180"/>
+      <c r="S19" s="180"/>
+      <c r="T19" s="180"/>
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="162">
+      <c r="A20" s="179">
         <v>3</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="162"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="20"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="182"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="164"/>
       <c r="S20" s="21"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="162"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="162"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="182"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="164"/>
       <c r="S21" s="21"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="162"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="162"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="182"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="164"/>
       <c r="S22" s="21"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="162"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="162"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="20"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="182"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="164"/>
       <c r="S23" s="21"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="162"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="162"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="182"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="164"/>
       <c r="S24" s="21"/>
       <c r="T24" s="2"/>
     </row>
@@ -15016,6 +15024,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A19:T19"/>
+    <mergeCell ref="B2:L4"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="O15:R15"/>
@@ -15032,43 +15077,6 @@
     <mergeCell ref="G17:N17"/>
     <mergeCell ref="G18:N18"/>
     <mergeCell ref="C14:C18"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="B2:L4"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T8:T12 T25:T27">
@@ -15722,8 +15730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15741,99 +15749,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="132"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="132"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="132"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="133" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="110"/>
       <c r="G9" s="110"/>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="134" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="111"/>
@@ -15841,10 +15849,10 @@
       <c r="L9" s="111"/>
       <c r="M9" s="111"/>
       <c r="N9" s="111"/>
-      <c r="O9" s="135" t="s">
+      <c r="O9" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="133" t="s">
+      <c r="P9" s="132" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="110" t="s">
@@ -15858,10 +15866,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="133"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="135"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="111" t="s">
         <v>31</v>
       </c>
@@ -15871,8 +15879,8 @@
       <c r="G10" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="111" t="s">
         <v>36</v>
       </c>
@@ -15888,8 +15896,8 @@
       <c r="N10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="135"/>
-      <c r="P10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="132"/>
       <c r="Q10" s="110"/>
       <c r="R10" s="110"/>
       <c r="S10" s="110"/>
@@ -15902,16 +15910,16 @@
         <v>195</v>
       </c>
       <c r="C11" s="8">
-        <v>1054</v>
+        <v>1302</v>
       </c>
       <c r="D11" s="8">
-        <v>1054</v>
+        <v>1302</v>
       </c>
       <c r="E11" s="8">
         <v>475</v>
       </c>
       <c r="F11" s="8">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="G11" s="8">
         <v>280</v>
@@ -15939,7 +15947,7 @@
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F12" s="8">
         <v>292</v>
@@ -15970,13 +15978,13 @@
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="119" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="F13" s="119" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G13" s="119" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
@@ -16001,13 +16009,13 @@
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
       <c r="E14" s="8">
-        <v>-0.17299999999999999</v>
+        <v>-0.113</v>
       </c>
       <c r="F14" s="8">
-        <v>-0.32500000000000001</v>
+        <v>-0.30299999999999999</v>
       </c>
       <c r="G14" s="8">
-        <v>-0.36</v>
+        <v>-0.376</v>
       </c>
       <c r="H14" s="114"/>
       <c r="I14" s="51"/>
@@ -16032,10 +16040,10 @@
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
       <c r="E15" s="8">
-        <v>0.69</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="F15" s="8">
-        <v>0.64</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -16319,7 +16327,7 @@
         <v>291</v>
       </c>
       <c r="G26" s="109" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="51"/>
@@ -16335,22 +16343,22 @@
       <c r="S26" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="134"/>
+      <c r="B28" s="131"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="134"/>
+      <c r="B29" s="131"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="134"/>
+      <c r="B30" s="131"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
@@ -16511,6 +16519,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="C9:C10"/>
@@ -16518,11 +16531,6 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="O9:O10"/>
-    <mergeCell ref="A2:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E36:E37">
@@ -16751,19 +16759,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
       <c r="L2" s="83"/>
       <c r="M2" s="83"/>
     </row>
@@ -16786,38 +16794,38 @@
       <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="150" t="s">
+      <c r="D4" s="141"/>
+      <c r="E4" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="151" t="s">
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151" t="s">
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
       <c r="N4" s="97" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="53" t="s">
         <v>205</v>
       </c>
@@ -16861,19 +16869,19 @@
         <v>285</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="84">
         <v>3.39</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="84">
         <v>2.36</v>
       </c>
       <c r="G6" s="120" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H6" s="54"/>
       <c r="I6" s="54"/>
@@ -16881,7 +16889,7 @@
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="137"/>
+      <c r="N6" s="144"/>
     </row>
     <row r="7" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
@@ -16901,7 +16909,7 @@
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="138"/>
+      <c r="N7" s="145"/>
     </row>
     <row r="8" spans="1:14" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
@@ -16911,19 +16919,19 @@
         <v>212</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="85">
         <v>1</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="85">
         <v>0.69</v>
       </c>
       <c r="G8" s="120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H8" s="54"/>
       <c r="I8" s="54"/>
@@ -16931,35 +16939,35 @@
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="139"/>
+      <c r="N8" s="146"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="141"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="86"/>
@@ -16982,32 +16990,32 @@
       <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="149" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144" t="s">
+      <c r="C14" s="151"/>
+      <c r="D14" s="151" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144" t="s">
+      <c r="E14" s="151"/>
+      <c r="F14" s="151" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144" t="s">
+      <c r="G14" s="151"/>
+      <c r="H14" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144" t="s">
+      <c r="I14" s="151"/>
+      <c r="J14" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="144"/>
+      <c r="K14" s="151"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="143"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="52" t="s">
         <v>220</v>
       </c>
@@ -17146,13 +17154,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="A10:K11"/>
     <mergeCell ref="A14:A15"/>
@@ -17161,6 +17162,13 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17416,8 +17424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -17459,7 +17467,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -17467,7 +17475,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -17475,7 +17483,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
@@ -17493,7 +17501,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17501,7 +17509,7 @@
         <v>176</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17509,7 +17517,7 @@
         <v>177</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="208.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17529,7 +17537,7 @@
         <v>198</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -17541,134 +17549,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11" style="17"/>
-    <col min="2" max="2" width="30.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="83.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="38.625" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="123">
-        <v>43020</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="118" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="32"/>
-    </row>
-    <row r="10" spans="2:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="122" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="246" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="26"/>
-    </row>
-    <row r="14" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="2:3" ht="218.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
@@ -17691,7 +17571,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
@@ -17699,7 +17579,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="123">
-        <v>43031</v>
+        <v>43020</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -17707,7 +17587,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="118" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17715,7 +17595,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -17723,7 +17603,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -17731,7 +17611,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
@@ -17749,7 +17629,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17757,7 +17637,7 @@
         <v>176</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -17765,7 +17645,7 @@
         <v>177</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="246" customHeight="1" x14ac:dyDescent="0.15">
@@ -17785,7 +17665,135 @@
         <v>198</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="17"/>
+    <col min="2" max="2" width="30.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="83.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="123">
+        <v>43031</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="2:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="246" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="2:3" ht="218.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/safe-电信行业部/轻量级监管.xlsx
+++ b/Documents/safe-电信行业部/轻量级监管.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="执行说明" sheetId="10" r:id="rId1"/>
@@ -20,21 +20,24 @@
     <sheet name="CP3.1" sheetId="19" r:id="rId6"/>
     <sheet name="CP3.2" sheetId="21" r:id="rId7"/>
     <sheet name="CP3.3" sheetId="3" r:id="rId8"/>
-    <sheet name="CP4" sheetId="4" r:id="rId9"/>
-    <sheet name="CP5" sheetId="5" r:id="rId10"/>
-    <sheet name="CP6" sheetId="6" r:id="rId11"/>
-    <sheet name="风险跟踪" sheetId="13" r:id="rId12"/>
-    <sheet name="标准故事" sheetId="18" r:id="rId13"/>
-    <sheet name="序列定义" sheetId="14" r:id="rId14"/>
-    <sheet name="变更履历" sheetId="16" r:id="rId15"/>
+    <sheet name="CP3.4" sheetId="22" r:id="rId9"/>
+    <sheet name="CP4" sheetId="4" r:id="rId10"/>
+    <sheet name="CP5" sheetId="5" r:id="rId11"/>
+    <sheet name="CP6" sheetId="6" r:id="rId12"/>
+    <sheet name="风险跟踪" sheetId="13" r:id="rId13"/>
+    <sheet name="标准故事" sheetId="18" r:id="rId14"/>
+    <sheet name="序列定义" sheetId="14" r:id="rId15"/>
+    <sheet name="变更履历" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="风险分类">序列定义!$B$1:$B$7</definedName>
@@ -153,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="324">
   <si>
     <t>评审项</t>
   </si>
@@ -1573,6 +1576,36 @@
   <si>
     <t>软件规模：计划完成280个故事点，实际完成280个
 人均速率：本次迭代共计10天，故人均速率为280/8/10=3.5，发布燃尽图偏差：-0.376
+团队目标达成率:1.0，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
+单元测试密度:50%，达到DOD标准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP3：发布3Sprint4评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李荣、高鹏飞、肖阳阳、姜文鹏、姚希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP3.1.4: 
+sprint4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际速率：105（实际完成故事点）/10（天）/5（人）=2.1实际及理论速率：105（实际完成故事点）/10（天）/5（人）=2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO：李荣
+SM:高鹏飞
+团队：肖阳阳、姜文鹏、姚希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件规模：计划完成105个故事点，实际完成105个
+人均速率：本次迭代共计10天，故人均速率为105/5/10=2.1，发布燃尽图偏差：-0.247
 团队目标达成率:1.0，由于团队新人占比居多、工作效率较低、需求的不稳定及可变性、没有大汉版本源码导致解读和了解业务流程困难重重一定程度上降低了目标达成率。团队在后续工作中加强沟通确认工作，以便及早发现和解决问题。
 单元测试密度:50%，达到DOD标准。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2556,7 +2589,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2568,26 +2601,14 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2595,26 +2616,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2640,6 +2652,27 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2661,6 +2694,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2669,27 +2717,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2721,16 +2748,22 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3707,7 +3740,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3830,8 +3862,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-840565184"/>
-        <c:axId val="-840562464"/>
+        <c:axId val="-1207260528"/>
+        <c:axId val="-1207250192"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -3898,7 +3930,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3943,11 +3974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-840565184"/>
-        <c:axId val="-840562464"/>
+        <c:axId val="-1207260528"/>
+        <c:axId val="-1207250192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-840565184"/>
+        <c:axId val="-1207260528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4022,14 +4053,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840562464"/>
+        <c:crossAx val="-1207250192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-840562464"/>
+        <c:axId val="-1207250192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4075,7 +4106,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4113,7 +4143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840565184"/>
+        <c:crossAx val="-1207260528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4261,7 +4291,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4380,11 +4409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-840563008"/>
-        <c:axId val="-840577152"/>
+        <c:axId val="-1207264880"/>
+        <c:axId val="-1207259440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-840563008"/>
+        <c:axId val="-1207264880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,14 +4448,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840577152"/>
+        <c:crossAx val="-1207259440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-840577152"/>
+        <c:axId val="-1207259440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4472,7 +4501,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840563008"/>
+        <c:crossAx val="-1207264880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4662,7 +4691,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4785,8 +4813,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-840564640"/>
-        <c:axId val="-840563552"/>
+        <c:axId val="-1207259984"/>
+        <c:axId val="-1207255088"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -4853,7 +4881,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4898,11 +4925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-840564640"/>
-        <c:axId val="-840563552"/>
+        <c:axId val="-1207259984"/>
+        <c:axId val="-1207255088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-840564640"/>
+        <c:axId val="-1207259984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4977,14 +5004,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840563552"/>
+        <c:crossAx val="-1207255088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-840563552"/>
+        <c:axId val="-1207255088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5030,7 +5057,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5068,7 +5094,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840564640"/>
+        <c:crossAx val="-1207259984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5335,11 +5361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-840572800"/>
-        <c:axId val="-840576608"/>
+        <c:axId val="-1207262704"/>
+        <c:axId val="-1207252912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-840572800"/>
+        <c:axId val="-1207262704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5374,14 +5400,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840576608"/>
+        <c:crossAx val="-1207252912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-840576608"/>
+        <c:axId val="-1207252912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5427,7 +5453,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840572800"/>
+        <c:crossAx val="-1207262704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5740,8 +5766,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-840571712"/>
-        <c:axId val="-840575520"/>
+        <c:axId val="-1207254544"/>
+        <c:axId val="-1207254000"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -5853,11 +5879,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-840571712"/>
-        <c:axId val="-840575520"/>
+        <c:axId val="-1207254544"/>
+        <c:axId val="-1207254000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-840571712"/>
+        <c:axId val="-1207254544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -5932,14 +5958,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840575520"/>
+        <c:crossAx val="-1207254000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-840575520"/>
+        <c:axId val="-1207254000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6023,7 +6049,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840571712"/>
+        <c:crossAx val="-1207254544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6290,11 +6316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-840564096"/>
-        <c:axId val="-840574976"/>
+        <c:axId val="-1207250736"/>
+        <c:axId val="-1207258352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-840564096"/>
+        <c:axId val="-1207250736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6329,14 +6355,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840574976"/>
+        <c:crossAx val="-1207258352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-840574976"/>
+        <c:axId val="-1207258352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6382,7 +6408,1034 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-840564096"/>
+        <c:crossAx val="-1207250736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+                <a:cs typeface="Microsoft YaHei"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+              </a:rPr>
+              <a:t>Sprint 燃尽图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42711823984964842"/>
+          <c:y val="1.0807066044644107E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11908405823895103"/>
+          <c:y val="0.17910480393103601"/>
+          <c:w val="0.82595481419580119"/>
+          <c:h val="0.63059816384052103"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实际曲线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="A2BD90"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F6228"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="333300"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                    <a:cs typeface="Microsoft YaHei"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[7]SprintBacklog!$AN$5:$BO$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[7]SprintBacklog!$AN$7:$BO$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>118.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1151662768"/>
+        <c:axId val="-1151670928"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>理想斜线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="DD0806"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F6228"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="333300"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                    <a:cs typeface="Microsoft YaHei"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>([7]SprintBacklog!$E$4,[7]SprintBacklog!$J$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>([7]SprintBacklog!$J$4,[7]SprintBacklog!$AN$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1151662768"/>
+        <c:axId val="-1151670928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1151662768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                    <a:cs typeface="Microsoft YaHei"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>天数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48857742782152236"/>
+              <c:y val="0.87784826269757033"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+                <a:cs typeface="Microsoft YaHei"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1151670928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1151670928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Microsoft YaHei"/>
+                    <a:ea typeface="Microsoft YaHei"/>
+                  </a:rPr>
+                  <a:t>剩余时间（h</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ Ｐゴシック"/>
+                    <a:ea typeface="ＭＳ Ｐゴシック"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei"/>
+                <a:ea typeface="Microsoft YaHei"/>
+                <a:cs typeface="Microsoft YaHei"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1151662768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Microsoft YaHei"/>
+          <a:ea typeface="Microsoft YaHei"/>
+          <a:cs typeface="Microsoft YaHei"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333399"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>SCRUM发布燃尽图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38641145920589715"/>
+          <c:y val="2.0658542972151684E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14370403379679336"/>
+          <c:y val="0.12081436171708342"/>
+          <c:w val="0.82720389202355848"/>
+          <c:h val="0.71309940330571187"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>实际曲线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="666699"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="666699"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[8]产品Backlog!$K$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[8]产品Backlog!$K$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>理想斜线</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="DD2D32"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C0504D"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="DD2D32"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[8]发布燃尽图!$B$1:$C$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[8]发布燃尽图!$G$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1203697152"/>
+        <c:axId val="-1203695520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1203697152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1203695520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1203695520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1203697152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12739,6 +13792,75 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6115051</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3035300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5848350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2505075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -13577,6 +14699,231 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SprintBacklog (2)"/>
+      <sheetName val="SprintBacklog3.1-计划会"/>
+      <sheetName val="SprintBacklog"/>
+      <sheetName val="原始数据"/>
+      <sheetName val="回顾"/>
+      <sheetName val="障碍列表"/>
+      <sheetName val="变更履历"/>
+      <sheetName val="字典"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="E4">
+            <v>14</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AN5">
+            <v>0</v>
+          </cell>
+          <cell r="AO5">
+            <v>1</v>
+          </cell>
+          <cell r="AQ5">
+            <v>2</v>
+          </cell>
+          <cell r="AS5">
+            <v>3</v>
+          </cell>
+          <cell r="AU5">
+            <v>4</v>
+          </cell>
+          <cell r="AW5">
+            <v>5</v>
+          </cell>
+          <cell r="AY5">
+            <v>6</v>
+          </cell>
+          <cell r="BA5">
+            <v>7</v>
+          </cell>
+          <cell r="BC5">
+            <v>8</v>
+          </cell>
+          <cell r="BE5">
+            <v>9</v>
+          </cell>
+          <cell r="BG5">
+            <v>10</v>
+          </cell>
+          <cell r="BI5">
+            <v>11</v>
+          </cell>
+          <cell r="BK5">
+            <v>12</v>
+          </cell>
+          <cell r="BM5">
+            <v>13</v>
+          </cell>
+          <cell r="BO5">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AN7">
+            <v>190</v>
+          </cell>
+          <cell r="AO7">
+            <v>190</v>
+          </cell>
+          <cell r="AQ7">
+            <v>168</v>
+          </cell>
+          <cell r="AS7">
+            <v>168</v>
+          </cell>
+          <cell r="AU7">
+            <v>168</v>
+          </cell>
+          <cell r="AW7">
+            <v>168</v>
+          </cell>
+          <cell r="AY7">
+            <v>168</v>
+          </cell>
+          <cell r="BA7">
+            <v>168</v>
+          </cell>
+          <cell r="BC7">
+            <v>168</v>
+          </cell>
+          <cell r="BE7">
+            <v>144</v>
+          </cell>
+          <cell r="BG7">
+            <v>118.4</v>
+          </cell>
+          <cell r="BI7">
+            <v>92.8</v>
+          </cell>
+          <cell r="BK7">
+            <v>0</v>
+          </cell>
+          <cell r="BM7">
+            <v>0</v>
+          </cell>
+          <cell r="BO7">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="规划部分"/>
+      <sheetName val="产品规划"/>
+      <sheetName val="产品Backlog"/>
+      <sheetName val="团队速率"/>
+      <sheetName val="发布燃尽图"/>
+      <sheetName val="估算回顾"/>
+      <sheetName val="标准故事"/>
+      <sheetName val="变更履历"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="K4">
+            <v>1407</v>
+          </cell>
+          <cell r="L4">
+            <v>932</v>
+          </cell>
+          <cell r="M4">
+            <v>640</v>
+          </cell>
+          <cell r="N4">
+            <v>360</v>
+          </cell>
+          <cell r="O4">
+            <v>255</v>
+          </cell>
+          <cell r="P4">
+            <v>255</v>
+          </cell>
+          <cell r="Q4">
+            <v>255</v>
+          </cell>
+          <cell r="R4">
+            <v>255</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>1</v>
+          </cell>
+          <cell r="M6">
+            <v>2</v>
+          </cell>
+          <cell r="N6">
+            <v>3</v>
+          </cell>
+          <cell r="O6">
+            <v>4</v>
+          </cell>
+          <cell r="P6">
+            <v>5</v>
+          </cell>
+          <cell r="Q6">
+            <v>6</v>
+          </cell>
+          <cell r="R6">
+            <v>7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="B1">
+            <v>7</v>
+          </cell>
+          <cell r="C1">
+            <v>0</v>
+          </cell>
+          <cell r="G1">
+            <v>0</v>
+          </cell>
+          <cell r="H1">
+            <v>1407</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13963,19 +15310,19 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="130" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="130" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14015,28 +15362,28 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="124" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="47" t="s">
@@ -14045,7 +15392,7 @@
       <c r="E16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="124" t="s">
         <v>162</v>
       </c>
     </row>
@@ -14111,39 +15458,39 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="128"/>
+      <c r="F22" s="129"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="9"/>
       <c r="E23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="129"/>
+      <c r="F23" s="128"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="124" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="124" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="124" t="s">
         <v>166</v>
       </c>
     </row>
@@ -14194,29 +15541,16 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
       <c r="E29" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="129"/>
+      <c r="F29" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:E12"/>
@@ -14225,6 +15559,19 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14238,6 +15585,97 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="17"/>
+    <col min="2" max="2" width="25.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="83.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="2:3" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C16"/>
   <sheetViews>
@@ -14366,7 +15804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C13"/>
   <sheetViews>
@@ -14469,7 +15907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U27"/>
   <sheetViews>
@@ -14492,123 +15930,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="171" t="s">
+      <c r="E6" s="169" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="170" t="s">
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="168" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="169"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="18" t="s">
         <v>152</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="176" t="s">
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="178"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="176"/>
       <c r="S7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="T7" s="170"/>
+      <c r="T7" s="168"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="179">
+      <c r="A8" s="162">
         <v>1</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="179" t="s">
+      <c r="D8" s="162" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -14617,399 +16055,399 @@
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="165" t="s">
+      <c r="G8" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="168"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="178"/>
+      <c r="R8" s="179"/>
       <c r="S8" s="21"/>
       <c r="T8" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="179"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="179"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="162"/>
       <c r="E9" s="20" t="s">
         <v>156</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="165" t="s">
+      <c r="G9" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="168"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="179"/>
       <c r="S9" s="21"/>
       <c r="T9" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="179"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="179"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="162"/>
       <c r="E10" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="165" t="s">
+      <c r="G10" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="168"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="179"/>
       <c r="S10" s="21"/>
       <c r="T10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="179"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="179"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="20"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="168"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="179"/>
       <c r="S11" s="21"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="179"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="162"/>
       <c r="E12" s="20"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="168"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="179"/>
       <c r="S12" s="21"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="182"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="182"/>
-      <c r="S13" s="182"/>
-      <c r="T13" s="182"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="161"/>
+      <c r="T13" s="161"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="179">
+      <c r="A14" s="162">
         <v>2</v>
       </c>
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="179"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="162"/>
       <c r="E14" s="20"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="164"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="182"/>
       <c r="S14" s="21"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="179"/>
-      <c r="B15" s="179"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="179"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="20"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="164"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="182"/>
       <c r="S15" s="21"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="179"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="20"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="164"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="182"/>
       <c r="S16" s="21"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="179"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="162"/>
       <c r="E17" s="20"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="164"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="182"/>
       <c r="S17" s="21"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="179"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="179"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="20"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="164"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="182"/>
       <c r="S18" s="21"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="180"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="180"/>
-      <c r="Q19" s="180"/>
-      <c r="R19" s="180"/>
-      <c r="S19" s="180"/>
-      <c r="T19" s="180"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="159"/>
+      <c r="T19" s="159"/>
       <c r="U19" s="22"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="179">
+      <c r="A20" s="162">
         <v>3</v>
       </c>
-      <c r="B20" s="179" t="s">
+      <c r="B20" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="179"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="162"/>
       <c r="E20" s="20"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="164"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="182"/>
       <c r="S20" s="21"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="179"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="179"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="162"/>
       <c r="E21" s="20"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="164"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="182"/>
       <c r="S21" s="21"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="179"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="162"/>
       <c r="E22" s="20"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="164"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="182"/>
       <c r="S22" s="21"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="179"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="179"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="20"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="164"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="182"/>
       <c r="S23" s="21"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="179"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="20"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="164"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
       <c r="S24" s="21"/>
       <c r="T24" s="2"/>
     </row>
@@ -15024,6 +16462,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="C8:C12"/>
     <mergeCell ref="A19:T19"/>
     <mergeCell ref="B2:L4"/>
     <mergeCell ref="A13:T13"/>
@@ -15040,43 +16515,6 @@
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="G14:N14"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="C14:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T8:T12 T25:T27">
@@ -15146,7 +16584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -15507,7 +16945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -15583,7 +17021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -15728,10 +17166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S38"/>
+  <dimension ref="A2:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15741,135 +17179,142 @@
     <col min="3" max="3" width="9.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="11.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10" style="7" customWidth="1"/>
-    <col min="9" max="14" width="9.125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="7"/>
+    <col min="6" max="8" width="11.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10" style="7" customWidth="1"/>
+    <col min="10" max="15" width="9.125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-    </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="132" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="132"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+    </row>
+    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="135" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="110"/>
       <c r="G9" s="110"/>
-      <c r="H9" s="134" t="s">
+      <c r="H9" s="110"/>
+      <c r="I9" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="134" t="s">
+      <c r="J9" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="111"/>
       <c r="K9" s="111"/>
       <c r="L9" s="111"/>
       <c r="M9" s="111"/>
       <c r="N9" s="111"/>
-      <c r="O9" s="133" t="s">
+      <c r="O9" s="111"/>
+      <c r="P9" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="132" t="s">
+      <c r="Q9" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="R9" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="110" t="s">
+      <c r="S9" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="110" t="s">
+      <c r="T9" s="110" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
+    <row r="10" spans="1:20" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="133"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="111" t="s">
         <v>31</v>
       </c>
@@ -15879,30 +17324,33 @@
       <c r="G10" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="111" t="s">
+      <c r="H10" s="111" t="s">
+        <v>320</v>
+      </c>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="111" t="s">
+      <c r="L10" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="111" t="s">
+      <c r="M10" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="111" t="s">
+      <c r="N10" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="111" t="s">
+      <c r="O10" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="133"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="110"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="133"/>
       <c r="R10" s="110"/>
       <c r="S10" s="110"/>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T10" s="110"/>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="107" t="s">
         <v>194</v>
       </c>
@@ -15910,10 +17358,10 @@
         <v>195</v>
       </c>
       <c r="C11" s="8">
-        <v>1302</v>
+        <v>1407</v>
       </c>
       <c r="D11" s="8">
-        <v>1302</v>
+        <v>1407</v>
       </c>
       <c r="E11" s="8">
         <v>475</v>
@@ -15924,20 +17372,23 @@
       <c r="G11" s="8">
         <v>280</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="8">
+        <v>105</v>
+      </c>
+      <c r="I11" s="51"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="51"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="51"/>
       <c r="S11" s="51"/>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T11" s="51"/>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="107" t="s">
         <v>14</v>
       </c>
@@ -15955,20 +17406,23 @@
       <c r="G12" s="8">
         <v>280</v>
       </c>
-      <c r="H12" s="51"/>
+      <c r="H12" s="8">
+        <v>105</v>
+      </c>
       <c r="I12" s="51"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="51"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="1:19" ht="199.5" x14ac:dyDescent="0.15">
+      <c r="T12" s="51"/>
+    </row>
+    <row r="13" spans="1:20" ht="199.5" x14ac:dyDescent="0.15">
       <c r="A13" s="107" t="s">
         <v>239</v>
       </c>
@@ -15986,20 +17440,23 @@
       <c r="G13" s="119" t="s">
         <v>314</v>
       </c>
-      <c r="H13" s="51"/>
+      <c r="H13" s="119" t="s">
+        <v>321</v>
+      </c>
       <c r="I13" s="51"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="51"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="113"/>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T13" s="51"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="107" t="s">
         <v>16</v>
       </c>
@@ -16017,20 +17474,23 @@
       <c r="G14" s="8">
         <v>-0.376</v>
       </c>
-      <c r="H14" s="114"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="8"/>
+      <c r="H14" s="8">
+        <v>-0.247</v>
+      </c>
+      <c r="I14" s="114"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="51"/>
+      <c r="P14" s="8"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="51"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T14" s="51"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="107" t="s">
         <v>18</v>
       </c>
@@ -16048,20 +17508,23 @@
       <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
       <c r="I15" s="51"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="51"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
       <c r="S15" s="51"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T15" s="51"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="116" t="s">
         <v>20</v>
       </c>
@@ -16073,20 +17536,21 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="51"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="51"/>
+      <c r="O16" s="8"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="51"/>
       <c r="R16" s="51"/>
       <c r="S16" s="51"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T16" s="51"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="108" t="s">
         <v>56</v>
       </c>
@@ -16098,20 +17562,21 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="51"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="51"/>
+      <c r="O17" s="8"/>
       <c r="P17" s="51"/>
       <c r="Q17" s="51"/>
       <c r="R17" s="51"/>
       <c r="S17" s="51"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T17" s="51"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="108" t="s">
         <v>59</v>
       </c>
@@ -16123,20 +17588,21 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="51"/>
+      <c r="O18" s="8"/>
       <c r="P18" s="51"/>
       <c r="Q18" s="51"/>
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T18" s="51"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="108" t="s">
         <v>60</v>
       </c>
@@ -16148,20 +17614,21 @@
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="8"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="51"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="114"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="51"/>
       <c r="S19" s="51"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T19" s="51"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="107" t="s">
         <v>47</v>
       </c>
@@ -16173,20 +17640,21 @@
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="51"/>
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="8"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="51"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="107" t="s">
         <v>48</v>
       </c>
@@ -16198,20 +17666,21 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="8"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="107" t="s">
         <v>23</v>
       </c>
@@ -16223,20 +17692,21 @@
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="51"/>
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="8"/>
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="51"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T22" s="51"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="107" t="s">
         <v>26</v>
       </c>
@@ -16256,12 +17726,13 @@
       <c r="M23" s="51"/>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
-      <c r="P23" s="8"/>
+      <c r="P23" s="51"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="107" t="s">
         <v>44</v>
       </c>
@@ -16281,12 +17752,13 @@
       <c r="M24" s="51"/>
       <c r="N24" s="51"/>
       <c r="O24" s="51"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="8"/>
       <c r="R24" s="51"/>
       <c r="S24" s="51"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T24" s="51"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="108" t="s">
         <v>46</v>
       </c>
@@ -16306,12 +17778,13 @@
       <c r="M25" s="51"/>
       <c r="N25" s="51"/>
       <c r="O25" s="51"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="8"/>
       <c r="R25" s="51"/>
       <c r="S25" s="51"/>
-    </row>
-    <row r="26" spans="1:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T25" s="51"/>
+    </row>
+    <row r="26" spans="1:20" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="117" t="s">
         <v>286</v>
       </c>
@@ -16329,43 +17802,46 @@
       <c r="G26" s="109" t="s">
         <v>311</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="8"/>
+      <c r="H26" s="109" t="s">
+        <v>322</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="51"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="8"/>
       <c r="R26" s="51"/>
       <c r="S26" s="51"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="131" t="s">
+      <c r="T26" s="51"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A28" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="131"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="131" t="s">
+      <c r="B28" s="134"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A29" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="131"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="131" t="s">
+      <c r="B29" s="134"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A30" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="131"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="134"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="57" x14ac:dyDescent="0.15">
       <c r="A35" s="90" t="s">
         <v>255</v>
       </c>
@@ -16387,23 +17863,24 @@
       <c r="G35" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="H35" s="91" t="s">
+      <c r="H35" s="91"/>
+      <c r="I35" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="I35" s="90" t="s">
+      <c r="J35" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="J35" s="91" t="s">
+      <c r="K35" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="K35" s="91" t="s">
+      <c r="L35" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="L35" s="92" t="s">
+      <c r="M35" s="92" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="303.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="303.75" x14ac:dyDescent="0.15">
       <c r="A36" s="93">
         <v>1</v>
       </c>
@@ -16425,23 +17902,24 @@
       <c r="G36" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="H36" s="94" t="s">
+      <c r="H36" s="94"/>
+      <c r="I36" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="I36" s="93" t="s">
+      <c r="J36" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="J36" s="95">
+      <c r="K36" s="95">
         <v>1</v>
       </c>
-      <c r="K36" s="95" t="s">
+      <c r="L36" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="L36" s="95" t="s">
+      <c r="M36" s="95" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="225" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="225" x14ac:dyDescent="0.15">
       <c r="A37" s="93">
         <v>2</v>
       </c>
@@ -16463,23 +17941,24 @@
       <c r="G37" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="H37" s="94" t="s">
+      <c r="H37" s="94"/>
+      <c r="I37" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="I37" s="93" t="s">
+      <c r="J37" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="J37" s="95">
+      <c r="K37" s="95">
         <v>1</v>
       </c>
-      <c r="K37" s="95" t="s">
+      <c r="L37" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="L37" s="95" t="s">
+      <c r="M37" s="95" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="236.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="236.25" x14ac:dyDescent="0.15">
       <c r="A38" s="93">
         <v>3</v>
       </c>
@@ -16501,80 +17980,81 @@
       <c r="G38" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="94" t="s">
+      <c r="H38" s="94"/>
+      <c r="I38" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="I38" s="93" t="s">
+      <c r="J38" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="J38" s="95">
+      <c r="K38" s="95">
         <v>1</v>
       </c>
-      <c r="K38" s="95" t="s">
+      <c r="L38" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="L38" s="95" t="s">
+      <c r="M38" s="95" t="s">
         <v>277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:J7"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="A2:K7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="O9:O10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E36:E37">
     <cfRule type="expression" dxfId="104" priority="46" stopIfTrue="1">
-      <formula>$J36="已删除"</formula>
+      <formula>$K36="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="103" priority="47" stopIfTrue="1">
-      <formula>$J36="进行中"</formula>
+      <formula>$K36="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="102" priority="48" stopIfTrue="1">
-      <formula>$J36="已交付"</formula>
+      <formula>$K36="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37 H37 B36:D36 F36 I37:I38 L37:L38 H36:L36">
+  <conditionalFormatting sqref="D37 I37 B36:D36 F36 J37:J38 M37:M38 I36:M36">
     <cfRule type="expression" dxfId="101" priority="43" stopIfTrue="1">
-      <formula>$K36="已删除"</formula>
+      <formula>$L36="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="100" priority="44" stopIfTrue="1">
-      <formula>$K36="进行中"</formula>
+      <formula>$L36="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="99" priority="45" stopIfTrue="1">
-      <formula>$K36="已交付"</formula>
+      <formula>$L36="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:C37">
     <cfRule type="expression" dxfId="98" priority="40" stopIfTrue="1">
-      <formula>$K37="已删除"</formula>
+      <formula>$L37="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="97" priority="41" stopIfTrue="1">
-      <formula>$K37="进行中"</formula>
+      <formula>$L37="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="96" priority="42" stopIfTrue="1">
-      <formula>$K37="已交付"</formula>
+      <formula>$L37="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
     <cfRule type="expression" dxfId="95" priority="37" stopIfTrue="1">
-      <formula>$K37="已删除"</formula>
+      <formula>$L37="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="94" priority="38" stopIfTrue="1">
-      <formula>$K37="进行中"</formula>
+      <formula>$L37="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="93" priority="39" stopIfTrue="1">
-      <formula>$K37="已交付"</formula>
+      <formula>$L37="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
@@ -16588,15 +18068,15 @@
       <formula>#REF!="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
+  <conditionalFormatting sqref="K37:L37">
     <cfRule type="expression" dxfId="89" priority="31" stopIfTrue="1">
-      <formula>$K37="已删除"</formula>
+      <formula>$L37="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="88" priority="32" stopIfTrue="1">
-      <formula>$K37="进行中"</formula>
+      <formula>$L37="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="87" priority="33" stopIfTrue="1">
-      <formula>$K37="已交付"</formula>
+      <formula>$L37="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
@@ -16612,46 +18092,46 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
     <cfRule type="expression" dxfId="83" priority="25" stopIfTrue="1">
-      <formula>$J38="已删除"</formula>
+      <formula>$K38="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="82" priority="26" stopIfTrue="1">
-      <formula>$J38="进行中"</formula>
+      <formula>$K38="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="81" priority="27" stopIfTrue="1">
-      <formula>$J38="已交付"</formula>
+      <formula>$K38="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
     <cfRule type="expression" dxfId="80" priority="22" stopIfTrue="1">
-      <formula>$K38="已删除"</formula>
+      <formula>$L38="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="79" priority="23" stopIfTrue="1">
-      <formula>$K38="进行中"</formula>
+      <formula>$L38="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="78" priority="24" stopIfTrue="1">
-      <formula>$K38="已交付"</formula>
+      <formula>$L38="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:C38">
     <cfRule type="expression" dxfId="77" priority="19" stopIfTrue="1">
-      <formula>$K38="已删除"</formula>
+      <formula>$L38="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="76" priority="20" stopIfTrue="1">
-      <formula>$K38="进行中"</formula>
+      <formula>$L38="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="75" priority="21" stopIfTrue="1">
-      <formula>$K38="已交付"</formula>
+      <formula>$L38="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
     <cfRule type="expression" dxfId="74" priority="10" stopIfTrue="1">
-      <formula>$K38="已删除"</formula>
+      <formula>$L38="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="73" priority="11" stopIfTrue="1">
-      <formula>$K38="进行中"</formula>
+      <formula>$L38="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="72" priority="12" stopIfTrue="1">
-      <formula>$K38="已交付"</formula>
+      <formula>$L38="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
@@ -16665,58 +18145,58 @@
       <formula>#REF!="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
+  <conditionalFormatting sqref="K38:L38">
     <cfRule type="expression" dxfId="68" priority="13" stopIfTrue="1">
-      <formula>$K38="已删除"</formula>
+      <formula>$L38="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="67" priority="14" stopIfTrue="1">
-      <formula>$K38="进行中"</formula>
+      <formula>$L38="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="66" priority="15" stopIfTrue="1">
-      <formula>$K38="已交付"</formula>
+      <formula>$L38="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="I38">
     <cfRule type="expression" dxfId="65" priority="7" stopIfTrue="1">
-      <formula>$K38="已删除"</formula>
+      <formula>$L38="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="8" stopIfTrue="1">
-      <formula>$K38="进行中"</formula>
+      <formula>$L38="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="63" priority="9" stopIfTrue="1">
-      <formula>$K38="已交付"</formula>
+      <formula>$L38="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G37">
+  <conditionalFormatting sqref="G36:H37">
     <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
-      <formula>$K36="已删除"</formula>
+      <formula>$L36="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
-      <formula>$K36="进行中"</formula>
+      <formula>$L36="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
-      <formula>$K36="已交付"</formula>
+      <formula>$L36="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G38:H38">
     <cfRule type="expression" dxfId="59" priority="1" stopIfTrue="1">
-      <formula>$K38="已删除"</formula>
+      <formula>$L38="已删除"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="2" stopIfTrue="1">
-      <formula>$K38="进行中"</formula>
+      <formula>$L38="进行中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
-      <formula>$K38="已交付"</formula>
+      <formula>$L38="已交付"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L36:L38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M36:M38">
       <formula1>"计划中,进行中,已交付,已删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:C38">
       <formula1>"极高,高,中,低,极低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I36:I38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J36:J38">
       <formula1>"sprint1,sprint2,sprint3,sprint4,sprint5,sprint6,sprint7"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16759,19 +18239,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
       <c r="L2" s="83"/>
       <c r="M2" s="83"/>
     </row>
@@ -16794,38 +18274,38 @@
       <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="148" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="150" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143" t="s">
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143" t="s">
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
       <c r="N4" s="97" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="53" t="s">
         <v>205</v>
       </c>
@@ -16889,7 +18369,7 @@
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
-      <c r="N6" s="144"/>
+      <c r="N6" s="137"/>
     </row>
     <row r="7" spans="1:14" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
@@ -16909,7 +18389,7 @@
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="145"/>
+      <c r="N7" s="138"/>
     </row>
     <row r="8" spans="1:14" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A8" s="52" t="s">
@@ -16939,35 +18419,35 @@
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="146"/>
+      <c r="N8" s="139"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="140" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
     </row>
     <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="148"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="86"/>
@@ -16990,32 +18470,32 @@
       <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="142" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="144" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151" t="s">
+      <c r="C14" s="144"/>
+      <c r="D14" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151" t="s">
+      <c r="E14" s="144"/>
+      <c r="F14" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151" t="s">
+      <c r="G14" s="144"/>
+      <c r="H14" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151" t="s">
+      <c r="I14" s="144"/>
+      <c r="J14" s="144" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="151"/>
+      <c r="K14" s="144"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="150"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="52" t="s">
         <v>220</v>
       </c>
@@ -17154,6 +18634,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="A10:K11"/>
     <mergeCell ref="A14:A15"/>
@@ -17162,13 +18649,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17296,7 +18776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -17552,7 +19032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -17680,7 +19160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -17811,16 +19291,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C11"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="17"/>
-    <col min="2" max="2" width="25.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="17" customWidth="1"/>
     <col min="3" max="3" width="83.125" style="17" customWidth="1"/>
     <col min="4" max="4" width="38.625" style="17" customWidth="1"/>
     <col min="5" max="16384" width="11" style="17"/>
@@ -17832,38 +19312,48 @@
         <v>68</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>72</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="123">
+        <v>43051</v>
+      </c>
     </row>
     <row r="4" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="118" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="6" spans="2:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="7" spans="2:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="29"/>
@@ -17875,27 +19365,54 @@
       </c>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="2:3" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="28"/>
+        <v>175</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="246" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="2:3" ht="218.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>323</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>